--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>814188.2154763873</v>
+        <v>809741.7926277879</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29913606.07986709</v>
+        <v>29913606.07986707</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7134934.855938641</v>
+        <v>7134934.85593864</v>
       </c>
     </row>
     <row r="9">
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T11" t="n">
-        <v>41.41558379326376</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U11" t="n">
         <v>255.6089649852995</v>
@@ -1435,10 +1435,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>162.5327658493849</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T12" t="n">
         <v>136.0833327936195</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>109.5352515808247</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>237.0153716433569</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>134.6350313157512</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>10.36819717389581</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>385.005901921398</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>57.06632804309218</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T14" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T15" t="n">
         <v>136.0833327936195</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>80.08133220444122</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>277.3329370021073</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>262.0671362587447</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>43.806499731199</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>115.5728243866575</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T18" t="n">
         <v>136.0833327936195</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>35.66817134227095</v>
+        <v>10.29213162177679</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.6838381111991</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S19" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.0153716433569</v>
@@ -2067,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>185.139975608587</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>398.2657302332918</v>
       </c>
       <c r="H20" t="n">
-        <v>115.7930463116457</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>57.06632804309218</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2146,10 +2146,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21.32198328315711</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2253,13 +2253,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.6838381111991</v>
+        <v>53.00852996885283</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I22" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T22" t="n">
         <v>237.0153716433569</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.2657302332918</v>
+        <v>320.1347946219011</v>
       </c>
       <c r="H23" t="n">
         <v>274.1005558094662</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>44.43375090463095</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>42.73502081808979</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2493,7 +2493,7 @@
         <v>163.6838381111991</v>
       </c>
       <c r="H25" t="n">
-        <v>33.38368115653748</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I25" t="n">
         <v>71.38780296833761</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>152.5650864830671</v>
@@ -2541,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -2569,10 +2569,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>49.64479376183483</v>
       </c>
       <c r="T26" t="n">
-        <v>192.3376666085655</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2727,10 +2727,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.26258275451</v>
+        <v>90.74677755077262</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>96.43507277962109</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T28" t="n">
         <v>237.0153716433569</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>83.34820801936058</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>208.6569304507688</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>37.10896768466381</v>
+        <v>113.6605662981449</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -2961,10 +2961,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>134.26258275451</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>277.3329370021073</v>
@@ -3015,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>189.0678878029339</v>
       </c>
       <c r="F32" t="n">
-        <v>54.05847376839595</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3201,10 +3201,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>145.5617896416682</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>119.7192485651718</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>398.2657302332918</v>
       </c>
       <c r="H35" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>252.6733392702847</v>
+        <v>4.515968950298461</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3429,13 +3429,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>13.15465026595569</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.6838381111991</v>
@@ -3444,7 +3444,7 @@
         <v>134.26258275451</v>
       </c>
       <c r="I37" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.62605313342555</v>
       </c>
       <c r="S37" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>7.324717291147174</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U37" t="n">
         <v>277.3329370021073</v>
@@ -3489,10 +3489,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.7945623714851</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>60.12576357340269</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3666,7 +3666,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3675,10 +3675,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>140.5985631924307</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.62605313342555</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U40" t="n">
         <v>277.3329370021073</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>28.87397685623515</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,10 +3745,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U41" t="n">
-        <v>54.05847376839566</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>217.840311198139</v>
       </c>
     </row>
     <row r="42">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>109.4975549715736</v>
       </c>
       <c r="C43" t="n">
-        <v>42.73502081808934</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3951,7 +3951,7 @@
         <v>152.5650864830671</v>
       </c>
       <c r="T43" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3329370021073</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.2657302332918</v>
+        <v>224.9689849565291</v>
       </c>
       <c r="H44" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U44" t="n">
-        <v>209.1989116375451</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4140,10 +4140,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4152,10 +4152,10 @@
         <v>163.6838381111991</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S46" t="n">
-        <v>94.12547265478607</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U46" t="n">
         <v>277.3329370021073</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>59.63656219391411</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>320.7025560166592</v>
+        <v>745.826737827259</v>
       </c>
       <c r="C11" t="n">
-        <v>320.7025560166592</v>
+        <v>745.826737827259</v>
       </c>
       <c r="D11" t="n">
-        <v>320.7025560166592</v>
+        <v>745.826737827259</v>
       </c>
       <c r="E11" t="n">
-        <v>320.7025560166592</v>
+        <v>745.826737827259</v>
       </c>
       <c r="F11" t="n">
         <v>320.7025560166592</v>
@@ -5035,28 +5035,28 @@
         <v>320.7025560166592</v>
       </c>
       <c r="H11" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I11" t="n">
         <v>87.10761271643838</v>
       </c>
       <c r="J11" t="n">
-        <v>228.5477172037495</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K11" t="n">
         <v>448.7747784804924</v>
       </c>
       <c r="L11" t="n">
-        <v>727.982458105066</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M11" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832443</v>
       </c>
       <c r="N11" t="n">
         <v>1365.479726947677</v>
       </c>
       <c r="O11" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P11" t="n">
         <v>1918.85421215123</v>
@@ -5068,25 +5068,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S11" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T11" t="n">
-        <v>2149.83146318995</v>
+        <v>1922.072887082162</v>
       </c>
       <c r="U11" t="n">
-        <v>1891.640589467425</v>
+        <v>1663.882013359637</v>
       </c>
       <c r="V11" t="n">
-        <v>1534.151174593675</v>
+        <v>1306.392598485887</v>
       </c>
       <c r="W11" t="n">
-        <v>1137.759824894022</v>
+        <v>910.0012487862336</v>
       </c>
       <c r="X11" t="n">
-        <v>726.0398260617688</v>
+        <v>745.826737827259</v>
       </c>
       <c r="Y11" t="n">
-        <v>320.7025560166592</v>
+        <v>745.826737827259</v>
       </c>
     </row>
     <row r="12">
@@ -5102,46 +5102,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D12" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E12" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F12" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G12" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H12" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I12" t="n">
-        <v>88.30073447494337</v>
+        <v>64.84342863053151</v>
       </c>
       <c r="J12" t="n">
-        <v>169.4835916153554</v>
+        <v>370.4976484428461</v>
       </c>
       <c r="K12" t="n">
-        <v>320.9381841013579</v>
+        <v>521.9522409288487</v>
       </c>
       <c r="L12" t="n">
-        <v>532.1149872941037</v>
+        <v>733.1290441215945</v>
       </c>
       <c r="M12" t="n">
-        <v>781.6938471317158</v>
+        <v>982.7079039592064</v>
       </c>
       <c r="N12" t="n">
-        <v>1040.219721542963</v>
+        <v>1241.233778370454</v>
       </c>
       <c r="O12" t="n">
-        <v>1368.668229322841</v>
+        <v>1474.123729607747</v>
       </c>
       <c r="P12" t="n">
-        <v>1552.441323867022</v>
+        <v>1657.896824151927</v>
       </c>
       <c r="Q12" t="n">
-        <v>1667.176901360697</v>
+        <v>1772.632401645602</v>
       </c>
       <c r="R12" t="n">
         <v>1815.956238873899</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>492.5449560603143</v>
+        <v>918.3957221253719</v>
       </c>
       <c r="C13" t="n">
-        <v>492.5449560603143</v>
+        <v>746.4231590042879</v>
       </c>
       <c r="D13" t="n">
-        <v>492.5449560603143</v>
+        <v>583.1063861310586</v>
       </c>
       <c r="E13" t="n">
-        <v>326.3367502131679</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="F13" t="n">
-        <v>154.4749759877283</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="G13" t="n">
-        <v>43.83330772426898</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H13" t="n">
-        <v>43.83330772426898</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I13" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J13" t="n">
         <v>165.0575948409233</v>
       </c>
       <c r="K13" t="n">
-        <v>496.3180254984903</v>
+        <v>496.3180254984902</v>
       </c>
       <c r="L13" t="n">
-        <v>608.6404166488189</v>
+        <v>985.0293102399837</v>
       </c>
       <c r="M13" t="n">
-        <v>727.5981003453072</v>
+        <v>1517.522474399294</v>
       </c>
       <c r="N13" t="n">
-        <v>1243.037007008586</v>
+        <v>1634.928458220693</v>
       </c>
       <c r="O13" t="n">
-        <v>1725.881883130877</v>
+        <v>1740.07101003978</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.50813441317</v>
+        <v>1989.180585230912</v>
       </c>
       <c r="Q13" t="n">
         <v>2191.665386213449</v>
@@ -5226,25 +5226,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S13" t="n">
-        <v>2037.559238250755</v>
+        <v>2037.559238250754</v>
       </c>
       <c r="T13" t="n">
-        <v>1798.149771944334</v>
+        <v>1798.149771944333</v>
       </c>
       <c r="U13" t="n">
-        <v>1518.015492144225</v>
+        <v>1798.149771944333</v>
       </c>
       <c r="V13" t="n">
-        <v>1236.304024752254</v>
+        <v>1662.154790817312</v>
       </c>
       <c r="W13" t="n">
-        <v>961.4516209247672</v>
+        <v>1387.302386989825</v>
       </c>
       <c r="X13" t="n">
-        <v>718.8877243705723</v>
+        <v>1144.73849043563</v>
       </c>
       <c r="Y13" t="n">
-        <v>492.5449560603143</v>
+        <v>918.3957221253719</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>481.2069641492475</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="C14" t="n">
-        <v>54.30623416254758</v>
+        <v>1707.121900627666</v>
       </c>
       <c r="D14" t="n">
-        <v>43.83330772426898</v>
+        <v>1283.829279812666</v>
       </c>
       <c r="E14" t="n">
-        <v>43.83330772426898</v>
+        <v>857.8523399605234</v>
       </c>
       <c r="F14" t="n">
-        <v>43.83330772426898</v>
+        <v>432.7281581499236</v>
       </c>
       <c r="G14" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H14" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I14" t="n">
-        <v>87.10761271643833</v>
+        <v>87.10761271643844</v>
       </c>
       <c r="J14" t="n">
         <v>228.5477172037495</v>
       </c>
       <c r="K14" t="n">
-        <v>448.7747784804923</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L14" t="n">
         <v>727.9824581050659</v>
@@ -5293,7 +5293,7 @@
         <v>1365.479726947677</v>
       </c>
       <c r="O14" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P14" t="n">
         <v>1918.85421215123</v>
@@ -5305,25 +5305,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S14" t="n">
-        <v>2134.022630614366</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T14" t="n">
-        <v>1922.072887082163</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="U14" t="n">
-        <v>1663.882013359638</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="V14" t="n">
-        <v>1306.392598485887</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="W14" t="n">
-        <v>1306.392598485887</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="X14" t="n">
-        <v>1306.392598485887</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="Y14" t="n">
-        <v>901.0553284407775</v>
+        <v>2134.022630614365</v>
       </c>
     </row>
     <row r="15">
@@ -5339,31 +5339,31 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D15" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E15" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F15" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G15" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H15" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I15" t="n">
-        <v>88.30073447494337</v>
+        <v>88.30073447494334</v>
       </c>
       <c r="J15" t="n">
-        <v>265.0421481579401</v>
+        <v>265.0421481579403</v>
       </c>
       <c r="K15" t="n">
-        <v>416.4967406439427</v>
+        <v>416.4967406439429</v>
       </c>
       <c r="L15" t="n">
-        <v>627.6735438366885</v>
+        <v>627.6735438366886</v>
       </c>
       <c r="M15" t="n">
         <v>877.2524036743006</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>296.6961053952936</v>
+        <v>746.4231590042879</v>
       </c>
       <c r="C16" t="n">
-        <v>124.7235422742096</v>
+        <v>746.4231590042879</v>
       </c>
       <c r="D16" t="n">
-        <v>43.83330772426898</v>
+        <v>583.1063861310586</v>
       </c>
       <c r="E16" t="n">
-        <v>43.83330772426898</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="F16" t="n">
-        <v>43.83330772426898</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="G16" t="n">
-        <v>43.83330772426898</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H16" t="n">
-        <v>43.83330772426898</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I16" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J16" t="n">
-        <v>87.13587819270245</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K16" t="n">
-        <v>418.3963088502694</v>
+        <v>249.0354163844682</v>
       </c>
       <c r="L16" t="n">
-        <v>907.1075935917629</v>
+        <v>522.9070889549459</v>
       </c>
       <c r="M16" t="n">
-        <v>1439.600757751073</v>
+        <v>1055.400253114256</v>
       </c>
       <c r="N16" t="n">
-        <v>1557.006741572472</v>
+        <v>1570.839159777535</v>
       </c>
       <c r="O16" t="n">
-        <v>1662.149293391559</v>
+        <v>2053.684035899825</v>
       </c>
       <c r="P16" t="n">
-        <v>1989.180585230912</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q16" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R16" t="n">
-        <v>2185.982504260494</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="S16" t="n">
-        <v>2031.8763562978</v>
+        <v>2031.876356297799</v>
       </c>
       <c r="T16" t="n">
-        <v>1792.466889991379</v>
+        <v>1792.466889991378</v>
       </c>
       <c r="U16" t="n">
         <v>1512.33261019127</v>
       </c>
       <c r="V16" t="n">
-        <v>1230.621142799299</v>
+        <v>1247.618331142033</v>
       </c>
       <c r="W16" t="n">
-        <v>955.7687389718121</v>
+        <v>972.7659273145458</v>
       </c>
       <c r="X16" t="n">
-        <v>713.2048424176172</v>
+        <v>972.7659273145458</v>
       </c>
       <c r="Y16" t="n">
-        <v>486.8620741073593</v>
+        <v>746.4231590042879</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2147.416396585975</v>
+        <v>892.2501103498685</v>
       </c>
       <c r="C17" t="n">
-        <v>1720.515666599275</v>
+        <v>892.2501103498685</v>
       </c>
       <c r="D17" t="n">
-        <v>1297.223045784276</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="E17" t="n">
-        <v>871.2461059321332</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="F17" t="n">
-        <v>446.1219241215334</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="G17" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H17" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I17" t="n">
-        <v>87.10761271643833</v>
+        <v>87.10761271643844</v>
       </c>
       <c r="J17" t="n">
-        <v>228.5477172037497</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K17" t="n">
-        <v>448.7747784804928</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L17" t="n">
-        <v>727.9824581050664</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M17" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832443</v>
       </c>
       <c r="N17" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O17" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P17" t="n">
         <v>1918.85421215123</v>
@@ -5548,19 +5548,19 @@
         <v>2191.665386213449</v>
       </c>
       <c r="U17" t="n">
-        <v>2191.665386213449</v>
+        <v>2074.925159560259</v>
       </c>
       <c r="V17" t="n">
-        <v>2191.665386213449</v>
+        <v>1717.435744686508</v>
       </c>
       <c r="W17" t="n">
-        <v>2191.665386213449</v>
+        <v>1717.435744686508</v>
       </c>
       <c r="X17" t="n">
-        <v>2191.665386213449</v>
+        <v>1717.435744686508</v>
       </c>
       <c r="Y17" t="n">
-        <v>2191.665386213449</v>
+        <v>1312.098474641399</v>
       </c>
     </row>
     <row r="18">
@@ -5576,46 +5576,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D18" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E18" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F18" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G18" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H18" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I18" t="n">
-        <v>88.30073447494337</v>
+        <v>64.84342863053151</v>
       </c>
       <c r="J18" t="n">
-        <v>265.0421481579401</v>
+        <v>370.4976484428461</v>
       </c>
       <c r="K18" t="n">
-        <v>416.4967406439427</v>
+        <v>521.9522409288487</v>
       </c>
       <c r="L18" t="n">
-        <v>627.6735438366885</v>
+        <v>733.1290441215945</v>
       </c>
       <c r="M18" t="n">
-        <v>877.2524036743006</v>
+        <v>982.7079039592064</v>
       </c>
       <c r="N18" t="n">
-        <v>1135.778278085548</v>
+        <v>1241.233778370454</v>
       </c>
       <c r="O18" t="n">
-        <v>1368.668229322841</v>
+        <v>1474.123729607747</v>
       </c>
       <c r="P18" t="n">
-        <v>1552.441323867022</v>
+        <v>1657.896824151927</v>
       </c>
       <c r="Q18" t="n">
-        <v>1667.176901360697</v>
+        <v>1772.632401645602</v>
       </c>
       <c r="R18" t="n">
         <v>1815.956238873899</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>718.8877243705723</v>
+        <v>693.3661499121822</v>
       </c>
       <c r="C19" t="n">
-        <v>718.8877243705723</v>
+        <v>521.3935867910982</v>
       </c>
       <c r="D19" t="n">
-        <v>682.8592684692885</v>
+        <v>510.9974942438489</v>
       </c>
       <c r="E19" t="n">
-        <v>516.651062622142</v>
+        <v>344.7892883967024</v>
       </c>
       <c r="F19" t="n">
         <v>344.7892883967024</v>
@@ -5667,58 +5667,58 @@
         <v>179.45207818337</v>
       </c>
       <c r="H19" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I19" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J19" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270244</v>
       </c>
       <c r="K19" t="n">
-        <v>496.3180254984903</v>
+        <v>418.3963088502693</v>
       </c>
       <c r="L19" t="n">
-        <v>985.0293102399839</v>
+        <v>530.7187000005979</v>
       </c>
       <c r="M19" t="n">
-        <v>1103.986993936472</v>
+        <v>1063.211864159908</v>
       </c>
       <c r="N19" t="n">
-        <v>1221.392977757871</v>
+        <v>1578.650770823187</v>
       </c>
       <c r="O19" t="n">
-        <v>1704.237853880161</v>
+        <v>1902.310538521926</v>
       </c>
       <c r="P19" t="n">
-        <v>2103.864105162455</v>
+        <v>1989.180585230912</v>
       </c>
       <c r="Q19" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R19" t="n">
-        <v>2191.665386213449</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="S19" t="n">
-        <v>2037.559238250755</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="T19" t="n">
-        <v>1798.149771944334</v>
+        <v>1946.573037954072</v>
       </c>
       <c r="U19" t="n">
-        <v>1518.015492144225</v>
+        <v>1666.438758153964</v>
       </c>
       <c r="V19" t="n">
-        <v>1236.304024752254</v>
+        <v>1384.727290761993</v>
       </c>
       <c r="W19" t="n">
-        <v>961.4516209247672</v>
+        <v>1109.874886934506</v>
       </c>
       <c r="X19" t="n">
-        <v>718.8877243705723</v>
+        <v>1109.874886934506</v>
       </c>
       <c r="Y19" t="n">
-        <v>718.8877243705723</v>
+        <v>883.5321186242479</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>563.0845971635998</v>
+        <v>910.0012487862336</v>
       </c>
       <c r="C20" t="n">
-        <v>563.0845971635998</v>
+        <v>910.0012487862336</v>
       </c>
       <c r="D20" t="n">
-        <v>563.0845971635998</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="E20" t="n">
-        <v>563.0845971635998</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="F20" t="n">
-        <v>563.0845971635998</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="G20" t="n">
-        <v>160.7959807663354</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H20" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I20" t="n">
         <v>87.10761271643833</v>
       </c>
       <c r="J20" t="n">
-        <v>228.5477172037499</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K20" t="n">
-        <v>448.7747784804928</v>
+        <v>448.7747784804923</v>
       </c>
       <c r="L20" t="n">
-        <v>727.9824581050664</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M20" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832443</v>
       </c>
       <c r="N20" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O20" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P20" t="n">
         <v>1918.85421215123</v>
@@ -5779,25 +5779,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S20" t="n">
-        <v>2134.022630614366</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T20" t="n">
-        <v>2134.022630614366</v>
+        <v>1922.072887082162</v>
       </c>
       <c r="U20" t="n">
-        <v>2134.022630614366</v>
+        <v>1663.882013359637</v>
       </c>
       <c r="V20" t="n">
-        <v>1776.533215740615</v>
+        <v>1306.392598485887</v>
       </c>
       <c r="W20" t="n">
-        <v>1380.141866040962</v>
+        <v>910.0012487862336</v>
       </c>
       <c r="X20" t="n">
-        <v>968.4218672087095</v>
+        <v>910.0012487862336</v>
       </c>
       <c r="Y20" t="n">
-        <v>563.0845971635998</v>
+        <v>910.0012487862336</v>
       </c>
     </row>
     <row r="21">
@@ -5813,22 +5813,22 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D21" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E21" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F21" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G21" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H21" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I21" t="n">
-        <v>88.30073447494337</v>
+        <v>88.30073447494335</v>
       </c>
       <c r="J21" t="n">
         <v>265.0421481579401</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>625.1137471713347</v>
+        <v>576.8303851954015</v>
       </c>
       <c r="C22" t="n">
-        <v>453.1411840502507</v>
+        <v>404.8578220743175</v>
       </c>
       <c r="D22" t="n">
-        <v>453.1411840502507</v>
+        <v>404.8578220743175</v>
       </c>
       <c r="E22" t="n">
-        <v>453.1411840502507</v>
+        <v>404.8578220743175</v>
       </c>
       <c r="F22" t="n">
-        <v>281.2794098248111</v>
+        <v>232.9960478488779</v>
       </c>
       <c r="G22" t="n">
-        <v>115.9421996114787</v>
+        <v>179.45207818337</v>
       </c>
       <c r="H22" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I22" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J22" t="n">
-        <v>87.13587819270245</v>
+        <v>87.13587819270244</v>
       </c>
       <c r="K22" t="n">
-        <v>324.1573201566145</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L22" t="n">
-        <v>436.479711306943</v>
+        <v>659.8249844777409</v>
       </c>
       <c r="M22" t="n">
-        <v>968.9728754662531</v>
+        <v>778.7826681742292</v>
       </c>
       <c r="N22" t="n">
-        <v>1484.411782129532</v>
+        <v>1294.221574837508</v>
       </c>
       <c r="O22" t="n">
-        <v>1589.554333948619</v>
+        <v>1777.066450959798</v>
       </c>
       <c r="P22" t="n">
-        <v>1989.180585230912</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q22" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R22" t="n">
-        <v>2191.665386213449</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="S22" t="n">
-        <v>2191.665386213449</v>
+        <v>2031.876356297799</v>
       </c>
       <c r="T22" t="n">
-        <v>1952.255919907028</v>
+        <v>1792.466889991378</v>
       </c>
       <c r="U22" t="n">
-        <v>1672.12164010692</v>
+        <v>1792.466889991378</v>
       </c>
       <c r="V22" t="n">
-        <v>1390.410172714948</v>
+        <v>1510.755422599407</v>
       </c>
       <c r="W22" t="n">
-        <v>1115.557768887461</v>
+        <v>1235.90301877192</v>
       </c>
       <c r="X22" t="n">
-        <v>872.9938723332665</v>
+        <v>993.339122217725</v>
       </c>
       <c r="Y22" t="n">
-        <v>646.6511040230085</v>
+        <v>766.9963539074671</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>722.9911724139236</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="C23" t="n">
-        <v>722.9911724139236</v>
+        <v>1495.172157095463</v>
       </c>
       <c r="D23" t="n">
-        <v>722.9911724139236</v>
+        <v>1495.172157095463</v>
       </c>
       <c r="E23" t="n">
-        <v>722.9911724139236</v>
+        <v>1069.195217243321</v>
       </c>
       <c r="F23" t="n">
-        <v>722.9911724139236</v>
+        <v>644.0710354327209</v>
       </c>
       <c r="G23" t="n">
         <v>320.7025560166592</v>
       </c>
       <c r="H23" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I23" t="n">
-        <v>87.10761271643833</v>
+        <v>87.10761271643842</v>
       </c>
       <c r="J23" t="n">
         <v>228.5477172037495</v>
       </c>
       <c r="K23" t="n">
-        <v>448.7747784804923</v>
+        <v>448.7747784804925</v>
       </c>
       <c r="L23" t="n">
-        <v>727.9824581050659</v>
+        <v>727.982458105066</v>
       </c>
       <c r="M23" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N23" t="n">
-        <v>1365.479726947677</v>
+        <v>1365.479726947678</v>
       </c>
       <c r="O23" t="n">
         <v>1667.064768900565</v>
@@ -6016,25 +6016,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S23" t="n">
-        <v>2146.782809542105</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T23" t="n">
-        <v>2146.782809542105</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="U23" t="n">
-        <v>1888.59193581958</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="V23" t="n">
-        <v>1531.102520945829</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="W23" t="n">
-        <v>1134.711171246176</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="X23" t="n">
-        <v>722.9911724139236</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="Y23" t="n">
-        <v>722.9911724139236</v>
+        <v>1922.072887082163</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H24" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I24" t="n">
-        <v>64.84342863053152</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J24" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579399</v>
       </c>
       <c r="K24" t="n">
-        <v>297.4808782569461</v>
+        <v>416.4967406439425</v>
       </c>
       <c r="L24" t="n">
-        <v>508.6576814496919</v>
+        <v>627.6735438366884</v>
       </c>
       <c r="M24" t="n">
-        <v>758.2365412873039</v>
+        <v>877.2524036743005</v>
       </c>
       <c r="N24" t="n">
-        <v>1016.762415698551</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O24" t="n">
-        <v>1249.652366935844</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P24" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q24" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R24" t="n">
         <v>1815.956238873899</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>486.8620741073593</v>
+        <v>961.4516209247677</v>
       </c>
       <c r="C25" t="n">
-        <v>486.8620741073593</v>
+        <v>918.2849332297275</v>
       </c>
       <c r="D25" t="n">
-        <v>486.8620741073593</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="E25" t="n">
-        <v>486.8620741073593</v>
+        <v>588.7599545093517</v>
       </c>
       <c r="F25" t="n">
-        <v>315.0002998819197</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="G25" t="n">
-        <v>149.6630896685872</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H25" t="n">
         <v>115.9421996114787</v>
       </c>
       <c r="I25" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J25" t="n">
-        <v>87.13587819270245</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K25" t="n">
-        <v>171.1136997362474</v>
+        <v>496.3180254984903</v>
       </c>
       <c r="L25" t="n">
-        <v>283.4360908865759</v>
+        <v>985.0293102399839</v>
       </c>
       <c r="M25" t="n">
-        <v>591.2705511630497</v>
+        <v>1103.986993936472</v>
       </c>
       <c r="N25" t="n">
-        <v>1106.709457826329</v>
+        <v>1221.392977757871</v>
       </c>
       <c r="O25" t="n">
         <v>1589.554333948619</v>
       </c>
       <c r="P25" t="n">
-        <v>1989.180585230912</v>
+        <v>1989.180585230913</v>
       </c>
       <c r="Q25" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R25" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S25" t="n">
-        <v>2031.8763562978</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T25" t="n">
-        <v>1792.466889991379</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U25" t="n">
-        <v>1512.33261019127</v>
+        <v>1518.015492144226</v>
       </c>
       <c r="V25" t="n">
-        <v>1230.621142799299</v>
+        <v>1236.304024752255</v>
       </c>
       <c r="W25" t="n">
-        <v>955.7687389718121</v>
+        <v>961.4516209247677</v>
       </c>
       <c r="X25" t="n">
-        <v>713.2048424176172</v>
+        <v>961.4516209247677</v>
       </c>
       <c r="Y25" t="n">
-        <v>486.8620741073593</v>
+        <v>961.4516209247677</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1997.384914891666</v>
+        <v>1745.127780188711</v>
       </c>
       <c r="C26" t="n">
-        <v>1997.384914891666</v>
+        <v>1318.227050202011</v>
       </c>
       <c r="D26" t="n">
-        <v>1574.092294076666</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="E26" t="n">
-        <v>1148.115354224523</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="F26" t="n">
-        <v>722.9911724139236</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G26" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H26" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I26" t="n">
-        <v>87.10761271643841</v>
+        <v>87.10761271643842</v>
       </c>
       <c r="J26" t="n">
         <v>228.5477172037495</v>
       </c>
       <c r="K26" t="n">
-        <v>448.7747784804924</v>
+        <v>448.7747784804925</v>
       </c>
       <c r="L26" t="n">
-        <v>727.9824581050659</v>
+        <v>727.982458105066</v>
       </c>
       <c r="M26" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N26" t="n">
-        <v>1365.479726947677</v>
+        <v>1365.479726947678</v>
       </c>
       <c r="O26" t="n">
         <v>1667.064768900565</v>
@@ -6253,25 +6253,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S26" t="n">
-        <v>2191.665386213449</v>
+        <v>2141.519129888364</v>
       </c>
       <c r="T26" t="n">
-        <v>1997.384914891666</v>
+        <v>2141.519129888364</v>
       </c>
       <c r="U26" t="n">
-        <v>1997.384914891666</v>
+        <v>2141.519129888364</v>
       </c>
       <c r="V26" t="n">
-        <v>1997.384914891666</v>
+        <v>2141.519129888364</v>
       </c>
       <c r="W26" t="n">
-        <v>1997.384914891666</v>
+        <v>1745.127780188711</v>
       </c>
       <c r="X26" t="n">
-        <v>1997.384914891666</v>
+        <v>1745.127780188711</v>
       </c>
       <c r="Y26" t="n">
-        <v>1997.384914891666</v>
+        <v>1745.127780188711</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H27" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I27" t="n">
-        <v>64.84342863053152</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J27" t="n">
-        <v>146.0262857709435</v>
+        <v>169.4835916153554</v>
       </c>
       <c r="K27" t="n">
-        <v>297.4808782569461</v>
+        <v>320.938184101358</v>
       </c>
       <c r="L27" t="n">
-        <v>508.6576814496919</v>
+        <v>532.1149872941038</v>
       </c>
       <c r="M27" t="n">
-        <v>758.2365412873039</v>
+        <v>781.6938471317159</v>
       </c>
       <c r="N27" t="n">
-        <v>1016.762415698551</v>
+        <v>1040.219721542963</v>
       </c>
       <c r="O27" t="n">
-        <v>1249.652366935844</v>
+        <v>1273.109672780256</v>
       </c>
       <c r="P27" t="n">
-        <v>1657.896824151927</v>
+        <v>1456.882767324437</v>
       </c>
       <c r="Q27" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R27" t="n">
         <v>1815.956238873899</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1018.148604463602</v>
+        <v>808.8560354586155</v>
       </c>
       <c r="C28" t="n">
-        <v>846.1760413425178</v>
+        <v>636.8834723375314</v>
       </c>
       <c r="D28" t="n">
-        <v>682.8592684692885</v>
+        <v>473.5666994643021</v>
       </c>
       <c r="E28" t="n">
-        <v>516.651062622142</v>
+        <v>307.3584936171557</v>
       </c>
       <c r="F28" t="n">
-        <v>344.7892883967024</v>
+        <v>135.4967193917161</v>
       </c>
       <c r="G28" t="n">
-        <v>179.45207818337</v>
+        <v>135.4967193917161</v>
       </c>
       <c r="H28" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I28" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J28" t="n">
-        <v>87.13587819270245</v>
+        <v>87.13587819270248</v>
       </c>
       <c r="K28" t="n">
         <v>171.1136997362474</v>
       </c>
       <c r="L28" t="n">
-        <v>522.9070889549464</v>
+        <v>659.8249844777409</v>
       </c>
       <c r="M28" t="n">
-        <v>1055.400253114256</v>
+        <v>1192.318148637051</v>
       </c>
       <c r="N28" t="n">
-        <v>1570.839159777536</v>
+        <v>1707.75705530033</v>
       </c>
       <c r="O28" t="n">
         <v>2053.684035899826</v>
       </c>
       <c r="P28" t="n">
-        <v>2140.554082608811</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q28" t="n">
         <v>2191.665386213449</v>
@@ -6411,25 +6411,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S28" t="n">
-        <v>2094.256221789589</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T28" t="n">
-        <v>1854.846755483168</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U28" t="n">
-        <v>1574.71247568306</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="V28" t="n">
-        <v>1293.001008291089</v>
+        <v>1516.438304552363</v>
       </c>
       <c r="W28" t="n">
-        <v>1018.148604463602</v>
+        <v>1241.585900724876</v>
       </c>
       <c r="X28" t="n">
-        <v>1018.148604463602</v>
+        <v>999.022004170681</v>
       </c>
       <c r="Y28" t="n">
-        <v>1018.148604463602</v>
+        <v>999.022004170681</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>743.9951768316589</v>
+        <v>978.2167676364339</v>
       </c>
       <c r="C29" t="n">
-        <v>743.9951768316589</v>
+        <v>551.316037649734</v>
       </c>
       <c r="D29" t="n">
-        <v>320.7025560166592</v>
+        <v>128.0234168347342</v>
       </c>
       <c r="E29" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="F29" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G29" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H29" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I29" t="n">
-        <v>87.10761271643841</v>
+        <v>87.10761271643878</v>
       </c>
       <c r="J29" t="n">
-        <v>228.5477172037495</v>
+        <v>228.5477172037499</v>
       </c>
       <c r="K29" t="n">
-        <v>448.7747784804924</v>
+        <v>448.7747784804931</v>
       </c>
       <c r="L29" t="n">
-        <v>727.9824581050659</v>
+        <v>727.9824581050666</v>
       </c>
       <c r="M29" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N29" t="n">
-        <v>1365.479726947677</v>
+        <v>1365.479726947678</v>
       </c>
       <c r="O29" t="n">
         <v>1667.064768900565</v>
       </c>
       <c r="P29" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q29" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R29" t="n">
         <v>2191.665386213449</v>
@@ -6493,22 +6493,22 @@
         <v>2191.665386213449</v>
       </c>
       <c r="T29" t="n">
-        <v>1980.900810000551</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="U29" t="n">
-        <v>1980.900810000551</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="V29" t="n">
-        <v>1980.900810000551</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="W29" t="n">
-        <v>1980.900810000551</v>
+        <v>1795.274036513796</v>
       </c>
       <c r="X29" t="n">
-        <v>1569.180811168299</v>
+        <v>1383.554037681544</v>
       </c>
       <c r="Y29" t="n">
-        <v>1163.843541123189</v>
+        <v>978.2167676364339</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H30" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I30" t="n">
-        <v>64.84342863053152</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J30" t="n">
-        <v>370.497648442846</v>
+        <v>265.0421481579399</v>
       </c>
       <c r="K30" t="n">
-        <v>521.9522409288486</v>
+        <v>416.4967406439425</v>
       </c>
       <c r="L30" t="n">
-        <v>733.1290441215943</v>
+        <v>627.6735438366884</v>
       </c>
       <c r="M30" t="n">
-        <v>982.7079039592064</v>
+        <v>877.2524036743005</v>
       </c>
       <c r="N30" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O30" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P30" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q30" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R30" t="n">
         <v>1815.956238873899</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>955.7687389718121</v>
+        <v>695.8946016173645</v>
       </c>
       <c r="C31" t="n">
-        <v>918.2849332297275</v>
+        <v>581.0859487909555</v>
       </c>
       <c r="D31" t="n">
-        <v>754.9681603564982</v>
+        <v>417.7691759177262</v>
       </c>
       <c r="E31" t="n">
-        <v>588.7599545093517</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="F31" t="n">
-        <v>416.8981802839121</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="G31" t="n">
         <v>251.5609700705797</v>
@@ -6618,55 +6618,55 @@
         <v>115.9421996114787</v>
       </c>
       <c r="I31" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J31" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270248</v>
       </c>
       <c r="K31" t="n">
-        <v>249.0354163844682</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L31" t="n">
-        <v>737.7467011259619</v>
+        <v>659.8249844777409</v>
       </c>
       <c r="M31" t="n">
-        <v>1270.239865285272</v>
+        <v>1192.318148637051</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.678771948551</v>
+        <v>1707.75705530033</v>
       </c>
       <c r="O31" t="n">
-        <v>1902.310538521926</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P31" t="n">
-        <v>1989.180585230912</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q31" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R31" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S31" t="n">
-        <v>2031.8763562978</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T31" t="n">
-        <v>1792.466889991379</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="U31" t="n">
-        <v>1512.33261019127</v>
+        <v>1911.531106413341</v>
       </c>
       <c r="V31" t="n">
-        <v>1230.621142799299</v>
+        <v>1629.81963902137</v>
       </c>
       <c r="W31" t="n">
-        <v>955.7687389718121</v>
+        <v>1354.967235193883</v>
       </c>
       <c r="X31" t="n">
-        <v>955.7687389718121</v>
+        <v>1112.403338639688</v>
       </c>
       <c r="Y31" t="n">
-        <v>955.7687389718121</v>
+        <v>886.0605703294302</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1374.608117336087</v>
+        <v>1360.097023089667</v>
       </c>
       <c r="C32" t="n">
-        <v>947.7073873493869</v>
+        <v>1360.097023089667</v>
       </c>
       <c r="D32" t="n">
-        <v>524.4147665343871</v>
+        <v>936.8044022746669</v>
       </c>
       <c r="E32" t="n">
-        <v>98.43782668224469</v>
+        <v>745.826737827259</v>
       </c>
       <c r="F32" t="n">
-        <v>43.83330772426898</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="G32" t="n">
-        <v>43.83330772426898</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H32" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I32" t="n">
-        <v>87.10761271643841</v>
+        <v>87.10761271643833</v>
       </c>
       <c r="J32" t="n">
         <v>228.5477172037495</v>
       </c>
       <c r="K32" t="n">
-        <v>448.7747784804924</v>
+        <v>448.7747784804926</v>
       </c>
       <c r="L32" t="n">
-        <v>727.9824581050659</v>
+        <v>727.9824581050661</v>
       </c>
       <c r="M32" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N32" t="n">
-        <v>1365.479726947677</v>
+        <v>1365.479726947678</v>
       </c>
       <c r="O32" t="n">
         <v>1667.064768900565</v>
       </c>
       <c r="P32" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q32" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R32" t="n">
         <v>2191.665386213449</v>
@@ -6742,10 +6742,10 @@
         <v>2191.665386213449</v>
       </c>
       <c r="X32" t="n">
-        <v>1779.945387381196</v>
+        <v>1779.945387381197</v>
       </c>
       <c r="Y32" t="n">
-        <v>1374.608117336087</v>
+        <v>1779.945387381197</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H33" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I33" t="n">
-        <v>64.84342863053152</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J33" t="n">
-        <v>370.497648442846</v>
+        <v>169.4835916153554</v>
       </c>
       <c r="K33" t="n">
-        <v>521.9522409288486</v>
+        <v>320.938184101358</v>
       </c>
       <c r="L33" t="n">
-        <v>733.1290441215943</v>
+        <v>532.1149872941038</v>
       </c>
       <c r="M33" t="n">
-        <v>982.7079039592064</v>
+        <v>781.6938471317159</v>
       </c>
       <c r="N33" t="n">
-        <v>1241.233778370454</v>
+        <v>1040.219721542963</v>
       </c>
       <c r="O33" t="n">
-        <v>1474.123729607747</v>
+        <v>1273.109672780256</v>
       </c>
       <c r="P33" t="n">
-        <v>1657.896824151927</v>
+        <v>1456.882767324437</v>
       </c>
       <c r="Q33" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R33" t="n">
         <v>1815.956238873899</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>864.2247345403282</v>
+        <v>1018.148604463602</v>
       </c>
       <c r="C34" t="n">
-        <v>692.2521714192442</v>
+        <v>846.1760413425178</v>
       </c>
       <c r="D34" t="n">
-        <v>528.9353985460149</v>
+        <v>682.8592684692885</v>
       </c>
       <c r="E34" t="n">
-        <v>362.7271926988684</v>
+        <v>516.651062622142</v>
       </c>
       <c r="F34" t="n">
-        <v>190.8654184734288</v>
+        <v>344.7892883967024</v>
       </c>
       <c r="G34" t="n">
-        <v>43.83330772426898</v>
+        <v>179.45207818337</v>
       </c>
       <c r="H34" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I34" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J34" t="n">
-        <v>87.13587819270245</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K34" t="n">
-        <v>418.3963088502694</v>
+        <v>496.3180254984903</v>
       </c>
       <c r="L34" t="n">
-        <v>530.718700000598</v>
+        <v>985.0293102399839</v>
       </c>
       <c r="M34" t="n">
-        <v>1063.211864159908</v>
+        <v>1103.986993936472</v>
       </c>
       <c r="N34" t="n">
-        <v>1578.650770823187</v>
+        <v>1221.392977757871</v>
       </c>
       <c r="O34" t="n">
-        <v>2053.684035899826</v>
+        <v>1589.554333948619</v>
       </c>
       <c r="P34" t="n">
-        <v>2140.554082608811</v>
+        <v>1989.180585230913</v>
       </c>
       <c r="Q34" t="n">
         <v>2191.665386213449</v>
@@ -6897,13 +6897,13 @@
         <v>1798.149771944334</v>
       </c>
       <c r="W34" t="n">
-        <v>1523.297368116847</v>
+        <v>1677.22123804012</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.733471562652</v>
+        <v>1434.657341485925</v>
       </c>
       <c r="Y34" t="n">
-        <v>1054.390703252394</v>
+        <v>1208.314573175667</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>722.9911724139236</v>
+        <v>1724.123775770975</v>
       </c>
       <c r="C35" t="n">
-        <v>722.9911724139236</v>
+        <v>1297.223045784276</v>
       </c>
       <c r="D35" t="n">
-        <v>722.9911724139236</v>
+        <v>1297.223045784276</v>
       </c>
       <c r="E35" t="n">
-        <v>722.9911724139236</v>
+        <v>871.2461059321332</v>
       </c>
       <c r="F35" t="n">
-        <v>722.9911724139236</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="G35" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H35" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I35" t="n">
-        <v>87.10761271643838</v>
+        <v>87.10761271643833</v>
       </c>
       <c r="J35" t="n">
         <v>228.5477172037495</v>
       </c>
       <c r="K35" t="n">
-        <v>448.7747784804923</v>
+        <v>448.7747784804926</v>
       </c>
       <c r="L35" t="n">
-        <v>727.9824581050659</v>
+        <v>727.9824581050661</v>
       </c>
       <c r="M35" t="n">
         <v>1043.801082832444</v>
@@ -6955,34 +6955,34 @@
         <v>1667.064768900565</v>
       </c>
       <c r="P35" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q35" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R35" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S35" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T35" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="U35" t="n">
-        <v>1936.439790990939</v>
+        <v>2129.461045816085</v>
       </c>
       <c r="V35" t="n">
-        <v>1936.439790990939</v>
+        <v>2129.461045816085</v>
       </c>
       <c r="W35" t="n">
-        <v>1540.048441291286</v>
+        <v>2129.461045816085</v>
       </c>
       <c r="X35" t="n">
-        <v>1128.328442459033</v>
+        <v>2129.461045816085</v>
       </c>
       <c r="Y35" t="n">
-        <v>722.9911724139236</v>
+        <v>1724.123775770975</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H36" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I36" t="n">
-        <v>64.84342863053152</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J36" t="n">
-        <v>370.497648442846</v>
+        <v>265.0421481579399</v>
       </c>
       <c r="K36" t="n">
-        <v>521.9522409288486</v>
+        <v>416.4967406439425</v>
       </c>
       <c r="L36" t="n">
-        <v>733.1290441215943</v>
+        <v>627.6735438366884</v>
       </c>
       <c r="M36" t="n">
-        <v>982.7079039592064</v>
+        <v>877.2524036743005</v>
       </c>
       <c r="N36" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O36" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P36" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q36" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R36" t="n">
         <v>1815.956238873899</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>760.7325176304357</v>
+        <v>693.3661499121831</v>
       </c>
       <c r="C37" t="n">
-        <v>588.7599545093517</v>
+        <v>521.3935867910991</v>
       </c>
       <c r="D37" t="n">
-        <v>588.7599545093517</v>
+        <v>358.0768139178698</v>
       </c>
       <c r="E37" t="n">
-        <v>588.7599545093517</v>
+        <v>344.7892883967024</v>
       </c>
       <c r="F37" t="n">
-        <v>416.8981802839121</v>
+        <v>344.7892883967024</v>
       </c>
       <c r="G37" t="n">
-        <v>251.5609700705797</v>
+        <v>179.45207818337</v>
       </c>
       <c r="H37" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I37" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J37" t="n">
-        <v>87.13587819270245</v>
+        <v>87.13587819270248</v>
       </c>
       <c r="K37" t="n">
         <v>171.1136997362474</v>
       </c>
       <c r="L37" t="n">
-        <v>659.8249844777409</v>
+        <v>522.9070889549469</v>
       </c>
       <c r="M37" t="n">
-        <v>1192.318148637051</v>
+        <v>1055.400253114257</v>
       </c>
       <c r="N37" t="n">
-        <v>1707.75705530033</v>
+        <v>1570.839159777536</v>
       </c>
       <c r="O37" t="n">
         <v>2053.684035899826</v>
       </c>
       <c r="P37" t="n">
-        <v>2140.554082608811</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q37" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R37" t="n">
-        <v>2191.665386213449</v>
+        <v>2185.982504260494</v>
       </c>
       <c r="S37" t="n">
-        <v>2037.559238250755</v>
+        <v>2185.982504260494</v>
       </c>
       <c r="T37" t="n">
-        <v>2030.160533916263</v>
+        <v>1946.573037954073</v>
       </c>
       <c r="U37" t="n">
-        <v>1750.026254116154</v>
+        <v>1666.438758153965</v>
       </c>
       <c r="V37" t="n">
-        <v>1468.314786724183</v>
+        <v>1384.727290761994</v>
       </c>
       <c r="W37" t="n">
-        <v>1193.462382896696</v>
+        <v>1109.874886934507</v>
       </c>
       <c r="X37" t="n">
-        <v>950.8984863425014</v>
+        <v>1109.874886934507</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.8984863425014</v>
+        <v>883.5321186242488</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1574.092294076666</v>
+        <v>894.0266585259686</v>
       </c>
       <c r="C38" t="n">
-        <v>1574.092294076666</v>
+        <v>467.1259285392687</v>
       </c>
       <c r="D38" t="n">
-        <v>1574.092294076666</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="E38" t="n">
-        <v>1148.115354224523</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="F38" t="n">
-        <v>722.9911724139236</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G38" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H38" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I38" t="n">
-        <v>87.10761271643841</v>
+        <v>87.10761271643844</v>
       </c>
       <c r="J38" t="n">
         <v>228.5477172037495</v>
       </c>
       <c r="K38" t="n">
-        <v>448.7747784804924</v>
+        <v>448.7747784804925</v>
       </c>
       <c r="L38" t="n">
-        <v>727.9824581050659</v>
+        <v>727.982458105066</v>
       </c>
       <c r="M38" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N38" t="n">
-        <v>1365.479726947677</v>
+        <v>1365.479726947678</v>
       </c>
       <c r="O38" t="n">
         <v>1667.064768900565</v>
       </c>
       <c r="P38" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q38" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R38" t="n">
         <v>2191.665386213449</v>
@@ -7204,22 +7204,22 @@
         <v>2191.665386213449</v>
       </c>
       <c r="T38" t="n">
-        <v>1985.812292908919</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="U38" t="n">
-        <v>1985.812292908919</v>
+        <v>2130.932291694861</v>
       </c>
       <c r="V38" t="n">
-        <v>1985.812292908919</v>
+        <v>2130.932291694861</v>
       </c>
       <c r="W38" t="n">
-        <v>1985.812292908919</v>
+        <v>2130.932291694861</v>
       </c>
       <c r="X38" t="n">
-        <v>1574.092294076666</v>
+        <v>1719.212292862608</v>
       </c>
       <c r="Y38" t="n">
-        <v>1574.092294076666</v>
+        <v>1313.875022817499</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H39" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I39" t="n">
-        <v>64.84342863053152</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J39" t="n">
-        <v>370.497648442846</v>
+        <v>169.4835916153554</v>
       </c>
       <c r="K39" t="n">
-        <v>521.9522409288486</v>
+        <v>320.938184101358</v>
       </c>
       <c r="L39" t="n">
-        <v>733.1290441215943</v>
+        <v>532.1149872941038</v>
       </c>
       <c r="M39" t="n">
-        <v>982.7079039592064</v>
+        <v>781.6938471317159</v>
       </c>
       <c r="N39" t="n">
-        <v>1241.233778370454</v>
+        <v>1040.219721542963</v>
       </c>
       <c r="O39" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P39" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q39" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R39" t="n">
         <v>1815.956238873899</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.8946016173641</v>
+        <v>1018.148604463602</v>
       </c>
       <c r="C40" t="n">
-        <v>523.92203849628</v>
+        <v>846.1760413425178</v>
       </c>
       <c r="D40" t="n">
-        <v>523.92203849628</v>
+        <v>682.8592684692885</v>
       </c>
       <c r="E40" t="n">
-        <v>357.7138326491336</v>
+        <v>516.651062622142</v>
       </c>
       <c r="F40" t="n">
-        <v>185.852058423694</v>
+        <v>344.7892883967024</v>
       </c>
       <c r="G40" t="n">
-        <v>43.83330772426898</v>
+        <v>179.45207818337</v>
       </c>
       <c r="H40" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I40" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J40" t="n">
-        <v>87.13587819270245</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K40" t="n">
-        <v>418.3963088502694</v>
+        <v>496.3180254984903</v>
       </c>
       <c r="L40" t="n">
-        <v>907.1075935917629</v>
+        <v>985.0293102399839</v>
       </c>
       <c r="M40" t="n">
-        <v>1026.065277288251</v>
+        <v>1103.986993936472</v>
       </c>
       <c r="N40" t="n">
-        <v>1143.47126110965</v>
+        <v>1221.392977757871</v>
       </c>
       <c r="O40" t="n">
-        <v>1626.31613723194</v>
+        <v>1704.237853880161</v>
       </c>
       <c r="P40" t="n">
-        <v>2025.942388514233</v>
+        <v>2103.864105162455</v>
       </c>
       <c r="Q40" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R40" t="n">
-        <v>2191.665386213449</v>
+        <v>2185.982504260494</v>
       </c>
       <c r="S40" t="n">
-        <v>2191.665386213449</v>
+        <v>2031.8763562978</v>
       </c>
       <c r="T40" t="n">
-        <v>2191.665386213449</v>
+        <v>1792.466889991379</v>
       </c>
       <c r="U40" t="n">
-        <v>1911.531106413341</v>
+        <v>1512.332610191271</v>
       </c>
       <c r="V40" t="n">
-        <v>1629.81963902137</v>
+        <v>1512.332610191271</v>
       </c>
       <c r="W40" t="n">
-        <v>1354.967235193883</v>
+        <v>1237.480206363784</v>
       </c>
       <c r="X40" t="n">
-        <v>1112.403338639688</v>
+        <v>1208.314573175667</v>
       </c>
       <c r="Y40" t="n">
-        <v>886.0605703294298</v>
+        <v>1208.314573175667</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1320.003598378111</v>
+        <v>747.603286003359</v>
       </c>
       <c r="C41" t="n">
-        <v>893.1028683914112</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="D41" t="n">
-        <v>469.8102475764114</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="E41" t="n">
-        <v>43.83330772426898</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="F41" t="n">
-        <v>43.83330772426898</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="G41" t="n">
-        <v>43.83330772426898</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H41" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I41" t="n">
-        <v>87.1076127164381</v>
+        <v>87.10761271643844</v>
       </c>
       <c r="J41" t="n">
-        <v>228.547717203749</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K41" t="n">
-        <v>448.7747784804919</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L41" t="n">
-        <v>727.9824581050655</v>
+        <v>727.982458105066</v>
       </c>
       <c r="M41" t="n">
-        <v>1043.801082832443</v>
+        <v>1043.801082832444</v>
       </c>
       <c r="N41" t="n">
         <v>1365.479726947677</v>
@@ -7429,10 +7429,10 @@
         <v>1667.064768900565</v>
       </c>
       <c r="P41" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q41" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R41" t="n">
         <v>2191.665386213449</v>
@@ -7441,22 +7441,22 @@
         <v>2191.665386213449</v>
       </c>
       <c r="T41" t="n">
-        <v>2191.665386213449</v>
+        <v>1979.715642681246</v>
       </c>
       <c r="U41" t="n">
-        <v>2137.060867255474</v>
+        <v>1721.524768958721</v>
       </c>
       <c r="V41" t="n">
-        <v>2137.060867255474</v>
+        <v>1364.035354084971</v>
       </c>
       <c r="W41" t="n">
-        <v>2137.060867255474</v>
+        <v>967.6440043853177</v>
       </c>
       <c r="X41" t="n">
-        <v>1725.340868423221</v>
+        <v>967.6440043853177</v>
       </c>
       <c r="Y41" t="n">
-        <v>1320.003598378111</v>
+        <v>747.603286003359</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H42" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I42" t="n">
-        <v>64.84342863053152</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J42" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K42" t="n">
-        <v>521.9522409288486</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L42" t="n">
-        <v>733.1290441215943</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M42" t="n">
-        <v>982.7079039592064</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N42" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O42" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P42" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q42" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R42" t="n">
         <v>1815.956238873899</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>961.4516209247672</v>
+        <v>1090.257496350811</v>
       </c>
       <c r="C43" t="n">
         <v>918.2849332297275</v>
@@ -7557,7 +7557,7 @@
         <v>588.7599545093517</v>
       </c>
       <c r="F43" t="n">
-        <v>416.8981802839121</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="G43" t="n">
         <v>251.5609700705797</v>
@@ -7566,28 +7566,28 @@
         <v>115.9421996114787</v>
       </c>
       <c r="I43" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J43" t="n">
         <v>87.13587819270245</v>
       </c>
       <c r="K43" t="n">
-        <v>418.3963088502694</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L43" t="n">
-        <v>907.1075935917629</v>
+        <v>659.8249844777409</v>
       </c>
       <c r="M43" t="n">
-        <v>1026.065277288251</v>
+        <v>1192.318148637051</v>
       </c>
       <c r="N43" t="n">
-        <v>1143.47126110965</v>
+        <v>1707.75705530033</v>
       </c>
       <c r="O43" t="n">
-        <v>1626.31613723194</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P43" t="n">
-        <v>2025.942388514233</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q43" t="n">
         <v>2191.665386213449</v>
@@ -7599,22 +7599,22 @@
         <v>2037.559238250755</v>
       </c>
       <c r="T43" t="n">
-        <v>1798.149771944334</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="U43" t="n">
-        <v>1518.015492144225</v>
+        <v>1757.424958450647</v>
       </c>
       <c r="V43" t="n">
-        <v>1236.304024752254</v>
+        <v>1475.713491058676</v>
       </c>
       <c r="W43" t="n">
-        <v>961.4516209247672</v>
+        <v>1200.861087231189</v>
       </c>
       <c r="X43" t="n">
-        <v>961.4516209247672</v>
+        <v>1200.861087231189</v>
       </c>
       <c r="Y43" t="n">
-        <v>961.4516209247672</v>
+        <v>1200.861087231189</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1575.016084211223</v>
+        <v>1120.3442673374</v>
       </c>
       <c r="C44" t="n">
-        <v>1148.115354224523</v>
+        <v>1120.3442673374</v>
       </c>
       <c r="D44" t="n">
-        <v>1148.115354224523</v>
+        <v>697.0516465224005</v>
       </c>
       <c r="E44" t="n">
-        <v>1148.115354224523</v>
+        <v>271.074706670258</v>
       </c>
       <c r="F44" t="n">
-        <v>722.9911724139236</v>
+        <v>271.074706670258</v>
       </c>
       <c r="G44" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H44" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I44" t="n">
         <v>87.10761271643841</v>
@@ -7657,7 +7657,7 @@
         <v>727.9824581050659</v>
       </c>
       <c r="M44" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832445</v>
       </c>
       <c r="N44" t="n">
         <v>1365.479726947678</v>
@@ -7666,34 +7666,34 @@
         <v>1667.064768900565</v>
       </c>
       <c r="P44" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q44" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R44" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S44" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T44" t="n">
-        <v>2191.665386213449</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="U44" t="n">
-        <v>1980.353354256333</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="V44" t="n">
-        <v>1980.353354256333</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="W44" t="n">
-        <v>1980.353354256333</v>
+        <v>1525.68153738251</v>
       </c>
       <c r="X44" t="n">
-        <v>1980.353354256333</v>
+        <v>1525.68153738251</v>
       </c>
       <c r="Y44" t="n">
-        <v>1575.016084211223</v>
+        <v>1120.3442673374</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H45" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I45" t="n">
         <v>88.30073447494337</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>882.5298340045008</v>
+        <v>760.7325176304357</v>
       </c>
       <c r="C46" t="n">
-        <v>710.5572708834168</v>
+        <v>588.7599545093517</v>
       </c>
       <c r="D46" t="n">
-        <v>547.2404980101875</v>
+        <v>588.7599545093517</v>
       </c>
       <c r="E46" t="n">
-        <v>381.032292163041</v>
+        <v>588.7599545093517</v>
       </c>
       <c r="F46" t="n">
-        <v>209.1705179376014</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="G46" t="n">
-        <v>43.83330772426898</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H46" t="n">
-        <v>43.83330772426898</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I46" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J46" t="n">
-        <v>87.13587819270245</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K46" t="n">
-        <v>171.1136997362474</v>
+        <v>496.3180254984903</v>
       </c>
       <c r="L46" t="n">
-        <v>659.8249844777409</v>
+        <v>985.0293102399839</v>
       </c>
       <c r="M46" t="n">
-        <v>1192.318148637051</v>
+        <v>1103.986993936472</v>
       </c>
       <c r="N46" t="n">
-        <v>1707.75705530033</v>
+        <v>1221.392977757871</v>
       </c>
       <c r="O46" t="n">
-        <v>2053.684035899826</v>
+        <v>1589.554333948619</v>
       </c>
       <c r="P46" t="n">
-        <v>2140.554082608811</v>
+        <v>1989.180585230913</v>
       </c>
       <c r="Q46" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R46" t="n">
-        <v>2191.665386213449</v>
+        <v>2185.982504260494</v>
       </c>
       <c r="S46" t="n">
-        <v>2096.589151208615</v>
+        <v>2031.8763562978</v>
       </c>
       <c r="T46" t="n">
-        <v>2096.589151208615</v>
+        <v>1792.466889991379</v>
       </c>
       <c r="U46" t="n">
-        <v>1816.454871408506</v>
+        <v>1512.332610191271</v>
       </c>
       <c r="V46" t="n">
-        <v>1816.454871408506</v>
+        <v>1512.332610191271</v>
       </c>
       <c r="W46" t="n">
-        <v>1541.602467581019</v>
+        <v>1237.480206363784</v>
       </c>
       <c r="X46" t="n">
-        <v>1299.038571026824</v>
+        <v>1177.241254652759</v>
       </c>
       <c r="Y46" t="n">
-        <v>1072.695802716567</v>
+        <v>950.8984863425014</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>226.7387501736391</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>96.5237944874595</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8853,22 +8853,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>163.8783115981277</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.19792747034465</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>96.52379448745938</v>
+        <v>96.52379448745958</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>163.1810923435851</v>
       </c>
       <c r="M16" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>242.5871162933007</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>96.52379448745938</v>
+        <v>226.7387501736391</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>220.7244604844971</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.06058327914813</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>96.52379448745937</v>
+        <v>96.5237944874594</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>154.5895155761284</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>279.411701959623</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>96.52379448745913</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>226.738750173639</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,22 +9795,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>190.7846228080662</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>381.5174992961649</v>
+        <v>265.675559971375</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>226.738750173639</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>96.52379448745933</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>241.8898970387581</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
@@ -10047,7 +10047,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>381.5174992961649</v>
+        <v>243.2165947276861</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>226.7387501736388</v>
+        <v>96.52379448745913</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10284,13 +10284,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>11.60526742857434</v>
+        <v>243.2165947276861</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>226.7387501736388</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>96.52379448745933</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>373.6269830884358</v>
+        <v>265.675559971375</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>226.7387501736388</v>
+        <v>96.52379448745913</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>241.8898970387584</v>
       </c>
       <c r="M37" t="n">
         <v>417.7126065281028</v>
@@ -10758,7 +10758,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>243.2165947276857</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>226.7387501736388</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>96.5237944874593</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
         <v>249.7804132464869</v>
@@ -11001,7 +11001,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>115.7693879743209</v>
+        <v>37.06058327914857</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>96.52379448745937</v>
       </c>
       <c r="K42" t="n">
-        <v>226.7387501736389</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>381.5174992961649</v>
+        <v>243.2165947276861</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>115.7693879743209</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>243.2165947276857</v>
+        <v>265.675559971375</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>398.2657302332918</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>168.4146623036174</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>245.0700329945453</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>54.14858653037435</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>144.2593214023001</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>408.6914974329539</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.2657302332918</v>
+        <v>13.25982831189373</v>
       </c>
       <c r="H14" t="n">
         <v>274.1005558094662</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -23563,7 +23563,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>81.60227294005577</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>16.82721645930667</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>371.8433809174157</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H17" t="n">
         <v>274.1005558094662</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.06632804309218</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T17" t="n">
         <v>209.8302460968812</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6089649852995</v>
+        <v>140.036140598642</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -23800,7 +23800,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>126.015433802226</v>
+        <v>151.3914735227202</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>233.9197189982627</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>158.3075094978205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>166.9423257417879</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>110.6753081423462</v>
       </c>
       <c r="H22" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24208,19 +24208,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>78.13093561139067</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>12.63257713846124</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24366,13 +24366,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>127.5178166717834</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>100.8789015979725</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.62605313342555</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.06632804309218</v>
+        <v>7.421534281257358</v>
       </c>
       <c r="T26" t="n">
-        <v>17.49257948831564</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U26" t="n">
         <v>255.6089649852995</v>
@@ -24505,7 +24505,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>43.5158052037374</v>
       </c>
       <c r="I28" t="n">
         <v>71.38780296833761</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.626053133425557</v>
+        <v>5.62605313342555</v>
       </c>
       <c r="S28" t="n">
-        <v>56.13001370344603</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>338.3689624342604</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -24697,7 +24697,7 @@
         <v>398.2657302332918</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>57.06632804309218</v>
       </c>
       <c r="T29" t="n">
-        <v>1.1733156461124</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U29" t="n">
         <v>255.6089649852995</v>
@@ -24742,7 +24742,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>133.1438698052093</v>
+        <v>56.59227119172824</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>5.62605313342555</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>232.6492826506871</v>
       </c>
       <c r="F32" t="n">
-        <v>366.8144662240978</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>398.2657302332918</v>
       </c>
       <c r="H32" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>18.12204846953081</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>71.38780296833761</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.626053133425557</v>
+        <v>5.62605313342555</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>152.3846312240403</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.8302460968812</v>
       </c>
       <c r="U35" t="n">
-        <v>2.935625715014811</v>
+        <v>251.0929960350011</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>151.3914735227193</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T37" t="n">
-        <v>229.6906543522097</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>57.06632804309218</v>
       </c>
       <c r="T38" t="n">
-        <v>6.035683725396098</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6089649852995</v>
+        <v>195.4832014118968</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>23.08527491876832</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>71.38780296833761</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>211.2642807324178</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25633,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -25645,7 +25645,7 @@
         <v>398.2657302332918</v>
       </c>
       <c r="H41" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>57.06632804309218</v>
       </c>
       <c r="T41" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>201.5504912169039</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>183.4435861465195</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>78.76675405337137</v>
       </c>
       <c r="C43" t="n">
-        <v>127.5178166717838</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>173.2967452767626</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>46.41005334775444</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>58.43961382828106</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>180.5016953947388</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>373152.3964752028</v>
+        <v>373152.3964752026</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>373152.3964752028</v>
+        <v>373152.3964752029</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>373152.3964752028</v>
+        <v>373152.3964752029</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>373152.3964752028</v>
+        <v>373152.3964752029</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>373152.3964752028</v>
+        <v>373152.3964752029</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>415973.9782741587</v>
       </c>
       <c r="C2" t="n">
-        <v>415973.9782741585</v>
+        <v>415973.9782741586</v>
       </c>
       <c r="D2" t="n">
         <v>415973.9782741586</v>
@@ -26325,37 +26325,37 @@
         <v>251417.5809647264</v>
       </c>
       <c r="F2" t="n">
-        <v>251417.5809647266</v>
+        <v>251417.5809647263</v>
       </c>
       <c r="G2" t="n">
-        <v>251417.5809647264</v>
+        <v>251417.5809647263</v>
       </c>
       <c r="H2" t="n">
-        <v>251417.5809647264</v>
+        <v>251417.5809647263</v>
       </c>
       <c r="I2" t="n">
-        <v>251417.5809647264</v>
+        <v>251417.5809647265</v>
       </c>
       <c r="J2" t="n">
         <v>251417.5809647265</v>
       </c>
       <c r="K2" t="n">
-        <v>251417.5809647263</v>
+        <v>251417.5809647265</v>
       </c>
       <c r="L2" t="n">
-        <v>251417.5809647263</v>
+        <v>251417.5809647265</v>
       </c>
       <c r="M2" t="n">
-        <v>251417.5809647264</v>
+        <v>251417.5809647265</v>
       </c>
       <c r="N2" t="n">
-        <v>251417.5809647263</v>
+        <v>251417.5809647265</v>
       </c>
       <c r="O2" t="n">
-        <v>251417.5809647263</v>
+        <v>251417.5809647265</v>
       </c>
       <c r="P2" t="n">
-        <v>251417.5809647264</v>
+        <v>251417.5809647265</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>136542.9452264841</v>
+        <v>136542.945226484</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>320775.5268176608</v>
       </c>
       <c r="C4" t="n">
-        <v>320775.5268176608</v>
+        <v>320775.5268176607</v>
       </c>
       <c r="D4" t="n">
         <v>320775.5268176608</v>
@@ -26435,28 +26435,28 @@
         <v>18150.94444527883</v>
       </c>
       <c r="H4" t="n">
-        <v>18150.94444527884</v>
+        <v>18150.94444527883</v>
       </c>
       <c r="I4" t="n">
-        <v>18150.94444527884</v>
+        <v>18150.94444527883</v>
       </c>
       <c r="J4" t="n">
         <v>18150.94444527884</v>
       </c>
       <c r="K4" t="n">
+        <v>18150.94444527884</v>
+      </c>
+      <c r="L4" t="n">
         <v>18150.94444527883</v>
       </c>
-      <c r="L4" t="n">
-        <v>18150.94444527884</v>
-      </c>
       <c r="M4" t="n">
-        <v>18150.94444527884</v>
+        <v>18150.94444527883</v>
       </c>
       <c r="N4" t="n">
         <v>18150.94444527883</v>
       </c>
       <c r="O4" t="n">
-        <v>18150.94444527883</v>
+        <v>18150.94444527884</v>
       </c>
       <c r="P4" t="n">
         <v>18150.94444527884</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="F5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="G5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="H5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="I5" t="n">
         <v>44321.17942781076</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61570.85145649797</v>
+        <v>61549.13781500157</v>
       </c>
       <c r="C6" t="n">
-        <v>61570.85145649774</v>
+        <v>61549.13781500157</v>
       </c>
       <c r="D6" t="n">
-        <v>61570.85145649785</v>
+        <v>61549.13781500145</v>
       </c>
       <c r="E6" t="n">
-        <v>-380327.0168197007</v>
+        <v>-380916.1663139883</v>
       </c>
       <c r="F6" t="n">
-        <v>188945.457091637</v>
+        <v>188356.3075973493</v>
       </c>
       <c r="G6" t="n">
-        <v>188945.4570916368</v>
+        <v>188356.3075973492</v>
       </c>
       <c r="H6" t="n">
-        <v>188945.4570916368</v>
+        <v>188356.3075973493</v>
       </c>
       <c r="I6" t="n">
-        <v>188945.4570916368</v>
+        <v>188356.3075973494</v>
       </c>
       <c r="J6" t="n">
-        <v>188945.4570916369</v>
+        <v>188356.3075973494</v>
       </c>
       <c r="K6" t="n">
-        <v>188945.4570916367</v>
+        <v>188356.3075973494</v>
       </c>
       <c r="L6" t="n">
-        <v>188945.4570916367</v>
+        <v>188356.3075973494</v>
       </c>
       <c r="M6" t="n">
-        <v>52402.51186515272</v>
+        <v>51813.36237086535</v>
       </c>
       <c r="N6" t="n">
-        <v>188945.4570916368</v>
+        <v>188356.3075973494</v>
       </c>
       <c r="O6" t="n">
-        <v>188945.4570916367</v>
+        <v>188356.3075973494</v>
       </c>
       <c r="P6" t="n">
-        <v>188945.4570916368</v>
+        <v>188356.3075973494</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>504.9479613470796</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="F3" t="n">
-        <v>504.9479613470796</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="G3" t="n">
-        <v>504.9479613470796</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="H3" t="n">
         <v>504.9479613470796</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="F4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="G4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="H4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="I4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="J4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="K4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="L4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="M4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="N4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="O4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="P4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533624</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>504.9479613470796</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.916346553362</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31761,22 +31761,22 @@
         <v>78.25932172797302</v>
       </c>
       <c r="J11" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K11" t="n">
         <v>258.2161778420244</v>
       </c>
       <c r="L11" t="n">
-        <v>320.3400016493639</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M11" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N11" t="n">
         <v>362.2075461831669</v>
       </c>
       <c r="O11" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P11" t="n">
         <v>291.9081327704994</v>
@@ -31788,10 +31788,10 @@
         <v>127.5133160883155</v>
       </c>
       <c r="S11" t="n">
-        <v>46.25729314249881</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T11" t="n">
-        <v>8.886069148932021</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U11" t="n">
         <v>0.1623953242523269</v>
@@ -31840,7 +31840,7 @@
         <v>37.39473109976014</v>
       </c>
       <c r="J12" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K12" t="n">
         <v>175.3836706878814</v>
@@ -31855,7 +31855,7 @@
         <v>282.4802750935893</v>
       </c>
       <c r="O12" t="n">
-        <v>258.4142647093871</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P12" t="n">
         <v>207.4002296332939</v>
@@ -31873,7 +31873,7 @@
         <v>4.377803551678924</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0714549001906245</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,7 +31913,7 @@
         <v>0.9105618975111269</v>
       </c>
       <c r="H13" t="n">
-        <v>8.095723052417117</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I13" t="n">
         <v>27.38307960878917</v>
@@ -31925,7 +31925,7 @@
         <v>105.7907368199291</v>
       </c>
       <c r="L13" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M13" t="n">
         <v>142.7347163525851</v>
@@ -31952,7 +31952,7 @@
         <v>3.890582653002087</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04966701259151608</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,22 +31998,22 @@
         <v>78.25932172797302</v>
       </c>
       <c r="J14" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K14" t="n">
         <v>258.2161778420244</v>
       </c>
       <c r="L14" t="n">
-        <v>320.3400016493639</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M14" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N14" t="n">
         <v>362.2075461831669</v>
       </c>
       <c r="O14" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P14" t="n">
         <v>291.9081327704994</v>
@@ -32025,10 +32025,10 @@
         <v>127.5133160883155</v>
       </c>
       <c r="S14" t="n">
-        <v>46.25729314249881</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T14" t="n">
-        <v>8.886069148932021</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U14" t="n">
         <v>0.1623953242523269</v>
@@ -32077,7 +32077,7 @@
         <v>37.39473109976014</v>
       </c>
       <c r="J15" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K15" t="n">
         <v>175.3836706878814</v>
@@ -32092,7 +32092,7 @@
         <v>282.4802750935893</v>
       </c>
       <c r="O15" t="n">
-        <v>258.4142647093871</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P15" t="n">
         <v>207.4002296332939</v>
@@ -32110,7 +32110,7 @@
         <v>4.377803551678924</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0714549001906245</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,7 +32150,7 @@
         <v>0.9105618975111269</v>
       </c>
       <c r="H16" t="n">
-        <v>8.095723052417117</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I16" t="n">
         <v>27.38307960878917</v>
@@ -32162,7 +32162,7 @@
         <v>105.7907368199291</v>
       </c>
       <c r="L16" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M16" t="n">
         <v>142.7347163525851</v>
@@ -32189,7 +32189,7 @@
         <v>3.890582653002087</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04966701259151608</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,22 +32235,22 @@
         <v>78.25932172797302</v>
       </c>
       <c r="J17" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K17" t="n">
         <v>258.2161778420244</v>
       </c>
       <c r="L17" t="n">
-        <v>320.3400016493639</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M17" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N17" t="n">
         <v>362.2075461831669</v>
       </c>
       <c r="O17" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P17" t="n">
         <v>291.9081327704994</v>
@@ -32262,10 +32262,10 @@
         <v>127.5133160883155</v>
       </c>
       <c r="S17" t="n">
-        <v>46.25729314249881</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T17" t="n">
-        <v>8.886069148932021</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U17" t="n">
         <v>0.1623953242523269</v>
@@ -32314,7 +32314,7 @@
         <v>37.39473109976014</v>
       </c>
       <c r="J18" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K18" t="n">
         <v>175.3836706878814</v>
@@ -32329,7 +32329,7 @@
         <v>282.4802750935893</v>
       </c>
       <c r="O18" t="n">
-        <v>258.4142647093871</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P18" t="n">
         <v>207.4002296332939</v>
@@ -32347,7 +32347,7 @@
         <v>4.377803551678924</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0714549001906245</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,7 +32387,7 @@
         <v>0.9105618975111269</v>
       </c>
       <c r="H19" t="n">
-        <v>8.095723052417117</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I19" t="n">
         <v>27.38307960878917</v>
@@ -32399,7 +32399,7 @@
         <v>105.7907368199291</v>
       </c>
       <c r="L19" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M19" t="n">
         <v>142.7347163525851</v>
@@ -32426,7 +32426,7 @@
         <v>3.890582653002087</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04966701259151608</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32706,13 +32706,13 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I23" t="n">
-        <v>78.25932172797302</v>
+        <v>78.25932172797303</v>
       </c>
       <c r="J23" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K23" t="n">
-        <v>258.2161778420244</v>
+        <v>258.2161778420245</v>
       </c>
       <c r="L23" t="n">
         <v>320.3400016493639</v>
@@ -32721,7 +32721,7 @@
         <v>356.4399747452679</v>
       </c>
       <c r="N23" t="n">
-        <v>362.2075461831669</v>
+        <v>362.207546183167</v>
       </c>
       <c r="O23" t="n">
         <v>342.022314863991</v>
@@ -32733,7 +32733,7 @@
         <v>219.2108508981686</v>
       </c>
       <c r="R23" t="n">
-        <v>127.5133160883155</v>
+        <v>127.5133160883156</v>
       </c>
       <c r="S23" t="n">
         <v>46.25729314249881</v>
@@ -32742,7 +32742,7 @@
         <v>8.886069148932021</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1623953242523269</v>
+        <v>0.162395324252327</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I24" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976015</v>
       </c>
       <c r="J24" t="n">
         <v>102.6140003337495</v>
@@ -32797,10 +32797,10 @@
         <v>235.8249889291243</v>
       </c>
       <c r="M24" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341584</v>
       </c>
       <c r="N24" t="n">
-        <v>282.4802750935893</v>
+        <v>282.4802750935894</v>
       </c>
       <c r="O24" t="n">
         <v>258.4142647093871</v>
@@ -32812,13 +32812,13 @@
         <v>138.6415610098623</v>
       </c>
       <c r="R24" t="n">
-        <v>67.43437113989869</v>
+        <v>67.4343711398987</v>
       </c>
       <c r="S24" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T24" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678925</v>
       </c>
       <c r="U24" t="n">
         <v>0.0714549001906245</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.910561897511127</v>
       </c>
       <c r="H25" t="n">
         <v>8.095723052417117</v>
       </c>
       <c r="I25" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878918</v>
       </c>
       <c r="J25" t="n">
-        <v>64.37672615403667</v>
+        <v>64.37672615403669</v>
       </c>
       <c r="K25" t="n">
         <v>105.7907368199291</v>
@@ -32888,16 +32888,16 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q25" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340902</v>
       </c>
       <c r="R25" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627303</v>
       </c>
       <c r="S25" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T25" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002088</v>
       </c>
       <c r="U25" t="n">
         <v>0.04966701259151608</v>
@@ -32943,13 +32943,13 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I26" t="n">
-        <v>78.25932172797302</v>
+        <v>78.25932172797303</v>
       </c>
       <c r="J26" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K26" t="n">
-        <v>258.2161778420244</v>
+        <v>258.2161778420245</v>
       </c>
       <c r="L26" t="n">
         <v>320.3400016493639</v>
@@ -32958,7 +32958,7 @@
         <v>356.4399747452679</v>
       </c>
       <c r="N26" t="n">
-        <v>362.2075461831669</v>
+        <v>362.207546183167</v>
       </c>
       <c r="O26" t="n">
         <v>342.022314863991</v>
@@ -32970,7 +32970,7 @@
         <v>219.2108508981686</v>
       </c>
       <c r="R26" t="n">
-        <v>127.5133160883155</v>
+        <v>127.5133160883156</v>
       </c>
       <c r="S26" t="n">
         <v>46.25729314249881</v>
@@ -32979,7 +32979,7 @@
         <v>8.886069148932021</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1623953242523269</v>
+        <v>0.162395324252327</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I27" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976015</v>
       </c>
       <c r="J27" t="n">
         <v>102.6140003337495</v>
@@ -33034,10 +33034,10 @@
         <v>235.8249889291243</v>
       </c>
       <c r="M27" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341584</v>
       </c>
       <c r="N27" t="n">
-        <v>282.4802750935893</v>
+        <v>282.4802750935894</v>
       </c>
       <c r="O27" t="n">
         <v>258.4142647093871</v>
@@ -33049,13 +33049,13 @@
         <v>138.6415610098623</v>
       </c>
       <c r="R27" t="n">
-        <v>67.43437113989869</v>
+        <v>67.4343711398987</v>
       </c>
       <c r="S27" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T27" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678925</v>
       </c>
       <c r="U27" t="n">
         <v>0.0714549001906245</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.910561897511127</v>
       </c>
       <c r="H28" t="n">
         <v>8.095723052417117</v>
       </c>
       <c r="I28" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878918</v>
       </c>
       <c r="J28" t="n">
-        <v>64.37672615403667</v>
+        <v>64.37672615403669</v>
       </c>
       <c r="K28" t="n">
         <v>105.7907368199291</v>
@@ -33125,16 +33125,16 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q28" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340902</v>
       </c>
       <c r="R28" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627303</v>
       </c>
       <c r="S28" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T28" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002088</v>
       </c>
       <c r="U28" t="n">
         <v>0.04966701259151608</v>
@@ -33180,13 +33180,13 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I29" t="n">
-        <v>78.25932172797302</v>
+        <v>78.25932172797303</v>
       </c>
       <c r="J29" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K29" t="n">
-        <v>258.2161778420244</v>
+        <v>258.2161778420245</v>
       </c>
       <c r="L29" t="n">
         <v>320.3400016493639</v>
@@ -33195,7 +33195,7 @@
         <v>356.4399747452679</v>
       </c>
       <c r="N29" t="n">
-        <v>362.2075461831669</v>
+        <v>362.207546183167</v>
       </c>
       <c r="O29" t="n">
         <v>342.022314863991</v>
@@ -33207,7 +33207,7 @@
         <v>219.2108508981686</v>
       </c>
       <c r="R29" t="n">
-        <v>127.5133160883155</v>
+        <v>127.5133160883156</v>
       </c>
       <c r="S29" t="n">
         <v>46.25729314249881</v>
@@ -33216,7 +33216,7 @@
         <v>8.886069148932021</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1623953242523269</v>
+        <v>0.162395324252327</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I30" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976015</v>
       </c>
       <c r="J30" t="n">
         <v>102.6140003337495</v>
@@ -33271,10 +33271,10 @@
         <v>235.8249889291243</v>
       </c>
       <c r="M30" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341584</v>
       </c>
       <c r="N30" t="n">
-        <v>282.4802750935893</v>
+        <v>282.4802750935894</v>
       </c>
       <c r="O30" t="n">
         <v>258.4142647093871</v>
@@ -33286,13 +33286,13 @@
         <v>138.6415610098623</v>
       </c>
       <c r="R30" t="n">
-        <v>67.43437113989869</v>
+        <v>67.4343711398987</v>
       </c>
       <c r="S30" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T30" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678925</v>
       </c>
       <c r="U30" t="n">
         <v>0.0714549001906245</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.910561897511127</v>
       </c>
       <c r="H31" t="n">
         <v>8.095723052417117</v>
       </c>
       <c r="I31" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878918</v>
       </c>
       <c r="J31" t="n">
-        <v>64.37672615403667</v>
+        <v>64.37672615403669</v>
       </c>
       <c r="K31" t="n">
         <v>105.7907368199291</v>
@@ -33362,16 +33362,16 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q31" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340902</v>
       </c>
       <c r="R31" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627303</v>
       </c>
       <c r="S31" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T31" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002088</v>
       </c>
       <c r="U31" t="n">
         <v>0.04966701259151608</v>
@@ -33417,13 +33417,13 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I32" t="n">
-        <v>78.25932172797302</v>
+        <v>78.25932172797303</v>
       </c>
       <c r="J32" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K32" t="n">
-        <v>258.2161778420244</v>
+        <v>258.2161778420245</v>
       </c>
       <c r="L32" t="n">
         <v>320.3400016493639</v>
@@ -33432,7 +33432,7 @@
         <v>356.4399747452679</v>
       </c>
       <c r="N32" t="n">
-        <v>362.2075461831669</v>
+        <v>362.207546183167</v>
       </c>
       <c r="O32" t="n">
         <v>342.022314863991</v>
@@ -33444,7 +33444,7 @@
         <v>219.2108508981686</v>
       </c>
       <c r="R32" t="n">
-        <v>127.5133160883155</v>
+        <v>127.5133160883156</v>
       </c>
       <c r="S32" t="n">
         <v>46.25729314249881</v>
@@ -33453,7 +33453,7 @@
         <v>8.886069148932021</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1623953242523269</v>
+        <v>0.162395324252327</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I33" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976015</v>
       </c>
       <c r="J33" t="n">
         <v>102.6140003337495</v>
@@ -33508,10 +33508,10 @@
         <v>235.8249889291243</v>
       </c>
       <c r="M33" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341584</v>
       </c>
       <c r="N33" t="n">
-        <v>282.4802750935893</v>
+        <v>282.4802750935894</v>
       </c>
       <c r="O33" t="n">
         <v>258.4142647093871</v>
@@ -33523,13 +33523,13 @@
         <v>138.6415610098623</v>
       </c>
       <c r="R33" t="n">
-        <v>67.43437113989869</v>
+        <v>67.4343711398987</v>
       </c>
       <c r="S33" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T33" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678925</v>
       </c>
       <c r="U33" t="n">
         <v>0.0714549001906245</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.910561897511127</v>
       </c>
       <c r="H34" t="n">
         <v>8.095723052417117</v>
       </c>
       <c r="I34" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878918</v>
       </c>
       <c r="J34" t="n">
-        <v>64.37672615403667</v>
+        <v>64.37672615403669</v>
       </c>
       <c r="K34" t="n">
         <v>105.7907368199291</v>
@@ -33599,16 +33599,16 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q34" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340902</v>
       </c>
       <c r="R34" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627303</v>
       </c>
       <c r="S34" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T34" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002088</v>
       </c>
       <c r="U34" t="n">
         <v>0.04966701259151608</v>
@@ -33654,13 +33654,13 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I35" t="n">
-        <v>78.25932172797302</v>
+        <v>78.25932172797303</v>
       </c>
       <c r="J35" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K35" t="n">
-        <v>258.2161778420244</v>
+        <v>258.2161778420245</v>
       </c>
       <c r="L35" t="n">
         <v>320.3400016493639</v>
@@ -33669,7 +33669,7 @@
         <v>356.4399747452679</v>
       </c>
       <c r="N35" t="n">
-        <v>362.2075461831669</v>
+        <v>362.207546183167</v>
       </c>
       <c r="O35" t="n">
         <v>342.022314863991</v>
@@ -33681,7 +33681,7 @@
         <v>219.2108508981686</v>
       </c>
       <c r="R35" t="n">
-        <v>127.5133160883155</v>
+        <v>127.5133160883156</v>
       </c>
       <c r="S35" t="n">
         <v>46.25729314249881</v>
@@ -33690,7 +33690,7 @@
         <v>8.886069148932021</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1623953242523269</v>
+        <v>0.162395324252327</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I36" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976015</v>
       </c>
       <c r="J36" t="n">
         <v>102.6140003337495</v>
@@ -33745,10 +33745,10 @@
         <v>235.8249889291243</v>
       </c>
       <c r="M36" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341584</v>
       </c>
       <c r="N36" t="n">
-        <v>282.4802750935893</v>
+        <v>282.4802750935894</v>
       </c>
       <c r="O36" t="n">
         <v>258.4142647093871</v>
@@ -33760,13 +33760,13 @@
         <v>138.6415610098623</v>
       </c>
       <c r="R36" t="n">
-        <v>67.43437113989869</v>
+        <v>67.4343711398987</v>
       </c>
       <c r="S36" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T36" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678925</v>
       </c>
       <c r="U36" t="n">
         <v>0.0714549001906245</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.910561897511127</v>
       </c>
       <c r="H37" t="n">
         <v>8.095723052417117</v>
       </c>
       <c r="I37" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878918</v>
       </c>
       <c r="J37" t="n">
-        <v>64.37672615403667</v>
+        <v>64.37672615403669</v>
       </c>
       <c r="K37" t="n">
         <v>105.7907368199291</v>
@@ -33836,16 +33836,16 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q37" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340902</v>
       </c>
       <c r="R37" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627303</v>
       </c>
       <c r="S37" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T37" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002088</v>
       </c>
       <c r="U37" t="n">
         <v>0.04966701259151608</v>
@@ -33891,13 +33891,13 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I38" t="n">
-        <v>78.25932172797302</v>
+        <v>78.25932172797303</v>
       </c>
       <c r="J38" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K38" t="n">
-        <v>258.2161778420244</v>
+        <v>258.2161778420245</v>
       </c>
       <c r="L38" t="n">
         <v>320.3400016493639</v>
@@ -33906,7 +33906,7 @@
         <v>356.4399747452679</v>
       </c>
       <c r="N38" t="n">
-        <v>362.2075461831669</v>
+        <v>362.207546183167</v>
       </c>
       <c r="O38" t="n">
         <v>342.022314863991</v>
@@ -33918,7 +33918,7 @@
         <v>219.2108508981686</v>
       </c>
       <c r="R38" t="n">
-        <v>127.5133160883155</v>
+        <v>127.5133160883156</v>
       </c>
       <c r="S38" t="n">
         <v>46.25729314249881</v>
@@ -33927,7 +33927,7 @@
         <v>8.886069148932021</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1623953242523269</v>
+        <v>0.162395324252327</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,7 +33970,7 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I39" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976015</v>
       </c>
       <c r="J39" t="n">
         <v>102.6140003337495</v>
@@ -33982,10 +33982,10 @@
         <v>235.8249889291243</v>
       </c>
       <c r="M39" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341584</v>
       </c>
       <c r="N39" t="n">
-        <v>282.4802750935893</v>
+        <v>282.4802750935894</v>
       </c>
       <c r="O39" t="n">
         <v>258.4142647093871</v>
@@ -33997,13 +33997,13 @@
         <v>138.6415610098623</v>
       </c>
       <c r="R39" t="n">
-        <v>67.43437113989869</v>
+        <v>67.4343711398987</v>
       </c>
       <c r="S39" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T39" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678925</v>
       </c>
       <c r="U39" t="n">
         <v>0.0714549001906245</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.910561897511127</v>
       </c>
       <c r="H40" t="n">
         <v>8.095723052417117</v>
       </c>
       <c r="I40" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878918</v>
       </c>
       <c r="J40" t="n">
-        <v>64.37672615403667</v>
+        <v>64.37672615403669</v>
       </c>
       <c r="K40" t="n">
         <v>105.7907368199291</v>
@@ -34073,16 +34073,16 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q40" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340902</v>
       </c>
       <c r="R40" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627303</v>
       </c>
       <c r="S40" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T40" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002088</v>
       </c>
       <c r="U40" t="n">
         <v>0.04966701259151608</v>
@@ -34377,10 +34377,10 @@
         <v>320.3400016493639</v>
       </c>
       <c r="M44" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452688</v>
       </c>
       <c r="N44" t="n">
-        <v>362.2075461831674</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O44" t="n">
         <v>342.022314863991</v>
@@ -35415,7 +35415,7 @@
         <v>222.4515770472151</v>
       </c>
       <c r="L11" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M11" t="n">
         <v>319.008711845836</v>
@@ -35424,7 +35424,7 @@
         <v>324.9279233487209</v>
       </c>
       <c r="O11" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P11" t="n">
         <v>254.3327709602681</v>
@@ -35433,7 +35433,7 @@
         <v>183.0861762935705</v>
       </c>
       <c r="R11" t="n">
-        <v>92.48066619351908</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>44.91659267744888</v>
+        <v>21.22234434976014</v>
       </c>
       <c r="J12" t="n">
-        <v>82.00288600041613</v>
+        <v>308.7416361740552</v>
       </c>
       <c r="K12" t="n">
         <v>152.9844368545481</v>
@@ -35497,13 +35497,13 @@
         <v>213.3099022148947</v>
       </c>
       <c r="M12" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N12" t="n">
         <v>261.1372468800477</v>
       </c>
       <c r="O12" t="n">
-        <v>331.7661694746243</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P12" t="n">
         <v>185.6293884284652</v>
@@ -35512,7 +35512,7 @@
         <v>115.8945227208838</v>
       </c>
       <c r="R12" t="n">
-        <v>150.2821591042452</v>
+        <v>43.76145174575454</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>122.4487748653074</v>
       </c>
       <c r="K13" t="n">
-        <v>334.6064956137041</v>
+        <v>334.606495613704</v>
       </c>
       <c r="L13" t="n">
-        <v>113.4569607579076</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M13" t="n">
-        <v>120.1592764610993</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N13" t="n">
-        <v>520.6453602659385</v>
+        <v>118.5919028498979</v>
       </c>
       <c r="O13" t="n">
-        <v>487.7220970932224</v>
+        <v>106.2045977970574</v>
       </c>
       <c r="P13" t="n">
-        <v>403.6628800831245</v>
+        <v>251.625833526396</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.82550686896872</v>
+        <v>204.5301020025625</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>222.4515770472151</v>
       </c>
       <c r="L14" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M14" t="n">
         <v>319.008711845836</v>
@@ -35661,7 +35661,7 @@
         <v>324.9279233487209</v>
       </c>
       <c r="O14" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P14" t="n">
         <v>254.3327709602681</v>
@@ -35670,7 +35670,7 @@
         <v>183.0861762935705</v>
       </c>
       <c r="R14" t="n">
-        <v>92.48066619351908</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>44.91659267744888</v>
+        <v>44.91659267744886</v>
       </c>
       <c r="J15" t="n">
-        <v>178.5266804878755</v>
+        <v>178.5266804878757</v>
       </c>
       <c r="K15" t="n">
         <v>152.9844368545481</v>
@@ -35734,7 +35734,7 @@
         <v>213.3099022148947</v>
       </c>
       <c r="M15" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N15" t="n">
         <v>261.1372468800477</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.73997017013481</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K16" t="n">
-        <v>334.6064956137041</v>
+        <v>84.82608236721708</v>
       </c>
       <c r="L16" t="n">
-        <v>493.647762365145</v>
+        <v>276.6380531014927</v>
       </c>
       <c r="M16" t="n">
         <v>537.871882989202</v>
       </c>
       <c r="N16" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O16" t="n">
-        <v>106.2045977970574</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P16" t="n">
-        <v>330.334638221569</v>
+        <v>87.74752192826831</v>
       </c>
       <c r="Q16" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>222.4515770472151</v>
       </c>
       <c r="L17" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M17" t="n">
         <v>319.008711845836</v>
@@ -35898,7 +35898,7 @@
         <v>324.9279233487209</v>
       </c>
       <c r="O17" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P17" t="n">
         <v>254.3327709602681</v>
@@ -35907,7 +35907,7 @@
         <v>183.0861762935705</v>
       </c>
       <c r="R17" t="n">
-        <v>92.48066619351908</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>44.91659267744888</v>
+        <v>21.22234434976014</v>
       </c>
       <c r="J18" t="n">
-        <v>178.5266804878755</v>
+        <v>308.7416361740552</v>
       </c>
       <c r="K18" t="n">
         <v>152.9844368545481</v>
@@ -35971,7 +35971,7 @@
         <v>213.3099022148947</v>
       </c>
       <c r="M18" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N18" t="n">
         <v>261.1372468800477</v>
@@ -35986,7 +35986,7 @@
         <v>115.8945227208838</v>
       </c>
       <c r="R18" t="n">
-        <v>150.2821591042452</v>
+        <v>43.76145174575454</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K19" t="n">
-        <v>334.6064956137041</v>
+        <v>334.606495613704</v>
       </c>
       <c r="L19" t="n">
-        <v>493.647762365145</v>
+        <v>113.4569607579076</v>
       </c>
       <c r="M19" t="n">
-        <v>120.1592764610993</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N19" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O19" t="n">
-        <v>487.7220970932224</v>
+        <v>326.9290582815545</v>
       </c>
       <c r="P19" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826831</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.6881626777722</v>
+        <v>204.5301020025625</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>43.73997017013481</v>
       </c>
       <c r="K22" t="n">
-        <v>239.4155979433455</v>
+        <v>84.8260823672171</v>
       </c>
       <c r="L22" t="n">
-        <v>113.4569607579076</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M22" t="n">
-        <v>537.871882989202</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N22" t="n">
         <v>520.6453602659385</v>
       </c>
       <c r="O22" t="n">
-        <v>106.2045977970574</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P22" t="n">
-        <v>403.6628800831245</v>
+        <v>367.1592238878914</v>
       </c>
       <c r="Q22" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,22 +36354,22 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>43.71141918400951</v>
+        <v>43.71141918400953</v>
       </c>
       <c r="J23" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K23" t="n">
-        <v>222.4515770472151</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L23" t="n">
         <v>282.027959216741</v>
       </c>
       <c r="M23" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458361</v>
       </c>
       <c r="N23" t="n">
-        <v>324.9279233487209</v>
+        <v>324.927923348721</v>
       </c>
       <c r="O23" t="n">
         <v>304.6313555079669</v>
@@ -36378,10 +36378,10 @@
         <v>254.3327709602681</v>
       </c>
       <c r="Q23" t="n">
-        <v>183.0861762935705</v>
+        <v>183.0861762935706</v>
       </c>
       <c r="R23" t="n">
-        <v>92.48066619351908</v>
+        <v>92.48066619351944</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J24" t="n">
-        <v>82.00288600041613</v>
+        <v>178.5266804878753</v>
       </c>
       <c r="K24" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L24" t="n">
-        <v>213.3099022148947</v>
+        <v>213.3099022148948</v>
       </c>
       <c r="M24" t="n">
         <v>252.0998584218304</v>
@@ -36454,13 +36454,13 @@
         <v>235.2423749871648</v>
       </c>
       <c r="P24" t="n">
-        <v>412.3681386021042</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q24" t="n">
         <v>115.8945227208838</v>
       </c>
       <c r="R24" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.73997017013481</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K25" t="n">
-        <v>84.8260823672171</v>
+        <v>334.6064956137041</v>
       </c>
       <c r="L25" t="n">
-        <v>113.4569607579076</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M25" t="n">
-        <v>310.9438992691655</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N25" t="n">
-        <v>520.6453602659385</v>
+        <v>118.5919028498979</v>
       </c>
       <c r="O25" t="n">
-        <v>487.7220970932224</v>
+        <v>371.8801577684325</v>
       </c>
       <c r="P25" t="n">
         <v>403.6628800831245</v>
@@ -36591,22 +36591,22 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>43.71141918400951</v>
+        <v>43.71141918400953</v>
       </c>
       <c r="J26" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K26" t="n">
-        <v>222.4515770472151</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L26" t="n">
         <v>282.027959216741</v>
       </c>
       <c r="M26" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458361</v>
       </c>
       <c r="N26" t="n">
-        <v>324.9279233487209</v>
+        <v>324.927923348721</v>
       </c>
       <c r="O26" t="n">
         <v>304.6313555079669</v>
@@ -36615,7 +36615,7 @@
         <v>254.3327709602681</v>
       </c>
       <c r="Q26" t="n">
-        <v>183.0861762935705</v>
+        <v>183.0861762935706</v>
       </c>
       <c r="R26" t="n">
         <v>92.48066619351944</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J27" t="n">
-        <v>82.00288600041613</v>
+        <v>82.00288600041614</v>
       </c>
       <c r="K27" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L27" t="n">
-        <v>213.3099022148947</v>
+        <v>213.3099022148948</v>
       </c>
       <c r="M27" t="n">
         <v>252.0998584218304</v>
@@ -36691,13 +36691,13 @@
         <v>235.2423749871648</v>
       </c>
       <c r="P27" t="n">
-        <v>412.3681386021042</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q27" t="n">
-        <v>115.8945227208838</v>
+        <v>212.4183172083432</v>
       </c>
       <c r="R27" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.73997017013481</v>
+        <v>43.73997017013482</v>
       </c>
       <c r="K28" t="n">
-        <v>84.8260823672171</v>
+        <v>84.82608236721711</v>
       </c>
       <c r="L28" t="n">
-        <v>355.3468577966657</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M28" t="n">
         <v>537.871882989202</v>
@@ -36767,13 +36767,13 @@
         <v>520.6453602659385</v>
       </c>
       <c r="O28" t="n">
-        <v>487.7220970932224</v>
+        <v>349.4211925247436</v>
       </c>
       <c r="P28" t="n">
-        <v>87.74752192826833</v>
+        <v>87.74752192826834</v>
       </c>
       <c r="Q28" t="n">
-        <v>51.62757939862406</v>
+        <v>51.62757939862408</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,22 +36828,22 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>43.71141918400951</v>
+        <v>43.71141918400953</v>
       </c>
       <c r="J29" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K29" t="n">
-        <v>222.4515770472151</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L29" t="n">
         <v>282.027959216741</v>
       </c>
       <c r="M29" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458361</v>
       </c>
       <c r="N29" t="n">
-        <v>324.9279233487209</v>
+        <v>324.927923348721</v>
       </c>
       <c r="O29" t="n">
         <v>304.6313555079669</v>
@@ -36852,10 +36852,10 @@
         <v>254.3327709602681</v>
       </c>
       <c r="Q29" t="n">
-        <v>183.0861762935705</v>
+        <v>183.0861762935706</v>
       </c>
       <c r="R29" t="n">
-        <v>92.48066619351944</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J30" t="n">
-        <v>308.741636174055</v>
+        <v>178.5266804878753</v>
       </c>
       <c r="K30" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L30" t="n">
-        <v>213.3099022148947</v>
+        <v>213.3099022148948</v>
       </c>
       <c r="M30" t="n">
         <v>252.0998584218304</v>
@@ -36928,13 +36928,13 @@
         <v>235.2423749871648</v>
       </c>
       <c r="P30" t="n">
-        <v>185.6293884284652</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q30" t="n">
         <v>115.8945227208838</v>
       </c>
       <c r="R30" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013482</v>
       </c>
       <c r="K31" t="n">
-        <v>84.8260823672171</v>
+        <v>84.82608236721711</v>
       </c>
       <c r="L31" t="n">
         <v>493.647762365145</v>
@@ -37004,13 +37004,13 @@
         <v>520.6453602659385</v>
       </c>
       <c r="O31" t="n">
-        <v>117.8098652256318</v>
+        <v>349.4211925247436</v>
       </c>
       <c r="P31" t="n">
-        <v>87.74752192826833</v>
+        <v>87.74752192826834</v>
       </c>
       <c r="Q31" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862408</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,22 +37065,22 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>43.71141918400951</v>
+        <v>43.71141918400953</v>
       </c>
       <c r="J32" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K32" t="n">
-        <v>222.4515770472151</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L32" t="n">
         <v>282.027959216741</v>
       </c>
       <c r="M32" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458361</v>
       </c>
       <c r="N32" t="n">
-        <v>324.9279233487209</v>
+        <v>324.927923348721</v>
       </c>
       <c r="O32" t="n">
         <v>304.6313555079669</v>
@@ -37089,10 +37089,10 @@
         <v>254.3327709602681</v>
       </c>
       <c r="Q32" t="n">
-        <v>183.0861762935705</v>
+        <v>183.0861762935706</v>
       </c>
       <c r="R32" t="n">
-        <v>92.48066619351944</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J33" t="n">
-        <v>308.741636174055</v>
+        <v>82.00288600041614</v>
       </c>
       <c r="K33" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L33" t="n">
-        <v>213.3099022148947</v>
+        <v>213.3099022148948</v>
       </c>
       <c r="M33" t="n">
         <v>252.0998584218304</v>
@@ -37165,13 +37165,13 @@
         <v>235.2423749871648</v>
       </c>
       <c r="P33" t="n">
-        <v>185.6293884284652</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q33" t="n">
-        <v>115.8945227208838</v>
+        <v>212.4183172083432</v>
       </c>
       <c r="R33" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.73997017013481</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K34" t="n">
         <v>334.6064956137041</v>
       </c>
       <c r="L34" t="n">
-        <v>113.4569607579076</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M34" t="n">
-        <v>537.871882989202</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N34" t="n">
-        <v>520.6453602659385</v>
+        <v>118.5919028498979</v>
       </c>
       <c r="O34" t="n">
-        <v>479.8315808854933</v>
+        <v>371.8801577684325</v>
       </c>
       <c r="P34" t="n">
-        <v>87.74752192826833</v>
+        <v>403.6628800831245</v>
       </c>
       <c r="Q34" t="n">
-        <v>51.62757939862406</v>
+        <v>204.5301020025625</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,22 +37302,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>43.71141918400951</v>
+        <v>43.71141918400953</v>
       </c>
       <c r="J35" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K35" t="n">
-        <v>222.4515770472151</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L35" t="n">
         <v>282.027959216741</v>
       </c>
       <c r="M35" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458361</v>
       </c>
       <c r="N35" t="n">
-        <v>324.9279233487209</v>
+        <v>324.927923348721</v>
       </c>
       <c r="O35" t="n">
         <v>304.6313555079669</v>
@@ -37326,7 +37326,7 @@
         <v>254.3327709602681</v>
       </c>
       <c r="Q35" t="n">
-        <v>183.0861762935705</v>
+        <v>183.0861762935706</v>
       </c>
       <c r="R35" t="n">
         <v>92.48066619351908</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J36" t="n">
-        <v>308.741636174055</v>
+        <v>178.5266804878753</v>
       </c>
       <c r="K36" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L36" t="n">
-        <v>213.3099022148947</v>
+        <v>213.3099022148948</v>
       </c>
       <c r="M36" t="n">
         <v>252.0998584218304</v>
@@ -37402,13 +37402,13 @@
         <v>235.2423749871648</v>
       </c>
       <c r="P36" t="n">
-        <v>185.6293884284652</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q36" t="n">
         <v>115.8945227208838</v>
       </c>
       <c r="R36" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.73997017013481</v>
+        <v>43.73997017013482</v>
       </c>
       <c r="K37" t="n">
-        <v>84.8260823672171</v>
+        <v>84.82608236721711</v>
       </c>
       <c r="L37" t="n">
-        <v>493.647762365145</v>
+        <v>355.3468577966661</v>
       </c>
       <c r="M37" t="n">
         <v>537.871882989202</v>
@@ -37478,13 +37478,13 @@
         <v>520.6453602659385</v>
       </c>
       <c r="O37" t="n">
-        <v>349.4211925247431</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P37" t="n">
-        <v>87.74752192826833</v>
+        <v>87.74752192826834</v>
       </c>
       <c r="Q37" t="n">
-        <v>51.62757939862406</v>
+        <v>51.62757939862408</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,22 +37539,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>43.71141918400951</v>
+        <v>43.71141918400953</v>
       </c>
       <c r="J38" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K38" t="n">
-        <v>222.4515770472151</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L38" t="n">
         <v>282.027959216741</v>
       </c>
       <c r="M38" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458361</v>
       </c>
       <c r="N38" t="n">
-        <v>324.9279233487209</v>
+        <v>324.927923348721</v>
       </c>
       <c r="O38" t="n">
         <v>304.6313555079669</v>
@@ -37563,10 +37563,10 @@
         <v>254.3327709602681</v>
       </c>
       <c r="Q38" t="n">
-        <v>183.0861762935705</v>
+        <v>183.0861762935706</v>
       </c>
       <c r="R38" t="n">
-        <v>92.48066619351944</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J39" t="n">
-        <v>308.741636174055</v>
+        <v>82.00288600041614</v>
       </c>
       <c r="K39" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L39" t="n">
-        <v>213.3099022148947</v>
+        <v>213.3099022148948</v>
       </c>
       <c r="M39" t="n">
         <v>252.0998584218304</v>
@@ -37636,16 +37636,16 @@
         <v>261.1372468800477</v>
       </c>
       <c r="O39" t="n">
-        <v>235.2423749871648</v>
+        <v>331.7661694746241</v>
       </c>
       <c r="P39" t="n">
-        <v>185.6293884284652</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q39" t="n">
         <v>115.8945227208838</v>
       </c>
       <c r="R39" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.73997017013481</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K40" t="n">
         <v>334.6064956137041</v>
@@ -37721,7 +37721,7 @@
         <v>403.6628800831245</v>
       </c>
       <c r="Q40" t="n">
-        <v>167.396967372945</v>
+        <v>88.68816267777265</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J42" t="n">
-        <v>82.00288600041613</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K42" t="n">
-        <v>379.7231870281869</v>
+        <v>152.9844368545481</v>
       </c>
       <c r="L42" t="n">
         <v>213.3099022148947</v>
@@ -37882,7 +37882,7 @@
         <v>115.8945227208838</v>
       </c>
       <c r="R42" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>43.73997017013481</v>
       </c>
       <c r="K43" t="n">
-        <v>334.6064956137041</v>
+        <v>84.8260823672171</v>
       </c>
       <c r="L43" t="n">
         <v>493.647762365145</v>
       </c>
       <c r="M43" t="n">
-        <v>120.1592764610993</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N43" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O43" t="n">
-        <v>487.7220970932224</v>
+        <v>349.4211925247436</v>
       </c>
       <c r="P43" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826833</v>
       </c>
       <c r="Q43" t="n">
-        <v>167.396967372945</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,10 +38025,10 @@
         <v>282.027959216741</v>
       </c>
       <c r="M44" t="n">
-        <v>319.008711845836</v>
+        <v>319.008711845837</v>
       </c>
       <c r="N44" t="n">
-        <v>324.9279233487214</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O44" t="n">
         <v>304.6313555079669</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>43.73997017013481</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K46" t="n">
-        <v>84.8260823672171</v>
+        <v>334.6064956137041</v>
       </c>
       <c r="L46" t="n">
         <v>493.647762365145</v>
       </c>
       <c r="M46" t="n">
-        <v>537.871882989202</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N46" t="n">
-        <v>520.6453602659385</v>
+        <v>118.5919028498979</v>
       </c>
       <c r="O46" t="n">
-        <v>349.4211925247431</v>
+        <v>371.8801577684325</v>
       </c>
       <c r="P46" t="n">
-        <v>87.74752192826833</v>
+        <v>403.6628800831245</v>
       </c>
       <c r="Q46" t="n">
-        <v>51.62757939862406</v>
+        <v>204.5301020025625</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
